--- a/cmip6/models/access-cm2/cmip6_csiro-arccss-bom_access-cm2_seaice.xlsx
+++ b/cmip6/models/access-cm2/cmip6_csiro-arccss-bom_access-cm2_seaice.xlsx
@@ -43,7 +43,7 @@
     <t>ACCESS-CM2</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Realm / Topic</t>
   </si>
   <si>
     <t>Sea Ice</t>

--- a/cmip6/models/access-cm2/cmip6_csiro-arccss-bom_access-cm2_seaice.xlsx
+++ b/cmip6/models/access-cm2/cmip6_csiro-arccss-bom_access-cm2_seaice.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="532">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -235,10 +235,10 @@
     <t>Salinity</t>
   </si>
   <si>
-    <t>Snow temperature</t>
-  </si>
-  <si>
-    <t>Snow depth</t>
+    <t>Snow temperature: Snow on ice temperature</t>
+  </si>
+  <si>
+    <t>Snow depth: Snow on ice thickness</t>
   </si>
   <si>
     <t>Other: document in cell to the right</t>
@@ -265,10 +265,10 @@
     <t>cmip6.seaice.key_properties.seawater_properties.ocean_freezing_point</t>
   </si>
   <si>
-    <t>TEOS-10</t>
-  </si>
-  <si>
-    <t>Constant</t>
+    <t>TEOS-10: Thermodynamic equation of seawater 2010.</t>
+  </si>
+  <si>
+    <t>Constant: Constant value of seawater freezing point is used.</t>
   </si>
   <si>
     <t xml:space="preserve">1.3.1.2 </t>
@@ -633,13 +633,13 @@
     <t>cmip6.seaice.grid.discretisation.horizontal.grid</t>
   </si>
   <si>
-    <t>Ocean grid</t>
-  </si>
-  <si>
-    <t>Atmosphere Grid</t>
-  </si>
-  <si>
-    <t>Own Grid</t>
+    <t>Ocean grid: Sea ice is horizontally discretised on the ocean grid.</t>
+  </si>
+  <si>
+    <t>Atmosphere Grid: Sea ice is horizontally discretised on the atmospheric grid.</t>
+  </si>
+  <si>
+    <t>Own Grid: Sea ice is horizontally discretised on its own independent grid.</t>
   </si>
   <si>
     <t>2.1.2.2 *</t>
@@ -660,7 +660,7 @@
     <t>Unstructured grid</t>
   </si>
   <si>
-    <t>Adaptive grid</t>
+    <t>Adaptive grid: Computational grid changes during the run</t>
   </si>
   <si>
     <t>2.1.2.3 *</t>
@@ -741,13 +741,13 @@
     <t>cmip6.seaice.grid.discretisation.vertical.layering</t>
   </si>
   <si>
-    <t>Zero-layer</t>
-  </si>
-  <si>
-    <t>Two-layers</t>
-  </si>
-  <si>
-    <t>Multi-layers</t>
+    <t>Zero-layer: Simulation has no internal ice thermodynamics.</t>
+  </si>
+  <si>
+    <t>Two-layers: Simulation uses two layers (i.e. one ice and one snow layer).</t>
+  </si>
+  <si>
+    <t>Multi-layers: Simulation uses more than two layers.</t>
   </si>
   <si>
     <t>2.1.3.2 *</t>
@@ -936,7 +936,7 @@
     <t>cmip6.seaice.dynamics.horizontal_transport</t>
   </si>
   <si>
-    <t>Incremental Re-mapping</t>
+    <t>Incremental Re-mapping: (including Semi-Lagrangian)</t>
   </si>
   <si>
     <t>Prather</t>
@@ -1011,10 +1011,10 @@
     <t>Mohr-Coloumb</t>
   </si>
   <si>
-    <t>Visco-plastic</t>
-  </si>
-  <si>
-    <t>Elastic-visco-plastic</t>
+    <t>Visco-plastic: VP</t>
+  </si>
+  <si>
+    <t>Elastic-visco-plastic: EVP</t>
   </si>
   <si>
     <t>Elastic-anisotropic-plastic</t>
@@ -1134,13 +1134,13 @@
     <t>cmip6.seaice.thermodynamics.energy.basal_heat_flux</t>
   </si>
   <si>
-    <t>Heat Reservoir</t>
-  </si>
-  <si>
-    <t>Thermal Fixed Salinity</t>
-  </si>
-  <si>
-    <t>Thermal Varying Salinity</t>
+    <t>Heat Reservoir: Brine inclusions treated as a heat reservoir.</t>
+  </si>
+  <si>
+    <t>Thermal Fixed Salinity: Thermal properties depend on S-T (with fixed salinity).</t>
+  </si>
+  <si>
+    <t>Thermal Varying Salinity: Thermal properties depend on S-T (with varying salinity.</t>
   </si>
   <si>
     <t xml:space="preserve">4.2.1.5 </t>
@@ -1311,6 +1311,9 @@
     <t>cmip6.seaice.thermodynamics.salt.mass_transport.salinity_type</t>
   </si>
   <si>
+    <t>Constant</t>
+  </si>
+  <si>
     <t>Prescribed salinity profile</t>
   </si>
   <si>
@@ -1608,10 +1611,10 @@
     <t>Delta-Eddington</t>
   </si>
   <si>
-    <t>Parameterized</t>
-  </si>
-  <si>
-    <t>Multi-band albedo</t>
+    <t>Parameterized: Sea ice albedo is parameterized.</t>
+  </si>
+  <si>
+    <t>Multi-band albedo: Albedo value has a spectral dependence.</t>
   </si>
   <si>
     <t>5.1.1.4 *</t>
@@ -1629,7 +1632,7 @@
     <t>Exponential attenuation</t>
   </si>
   <si>
-    <t>Ice radiation transmission per category</t>
+    <t>Ice radiation transmission per category: Radiation transmission through ice is different for each sea ice category.</t>
   </si>
 </sst>
 </file>
@@ -4679,13 +4682,13 @@
     <row r="93" spans="1:30" ht="24" customHeight="1">
       <c r="B93" s="11"/>
       <c r="AA93" s="6" t="s">
-        <v>82</v>
+        <v>424</v>
       </c>
       <c r="AB93" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AC93" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AD93" s="6" t="s">
         <v>73</v>
@@ -4693,10 +4696,10 @@
     </row>
     <row r="95" spans="1:30" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="24" customHeight="1">
@@ -4704,10 +4707,10 @@
         <v>85</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="97" spans="1:30" ht="24" customHeight="1">
@@ -4715,7 +4718,7 @@
     </row>
     <row r="99" spans="1:30" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B99" s="9" t="s">
         <v>226</v>
@@ -4726,10 +4729,10 @@
         <v>41</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="101" spans="1:30" ht="24" customHeight="1">
@@ -4742,20 +4745,20 @@
     </row>
     <row r="105" spans="1:30" ht="24" customHeight="1">
       <c r="A105" s="12" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="106" spans="1:30" ht="24" customHeight="1">
       <c r="B106" s="13" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="108" spans="1:30" ht="24" customHeight="1">
       <c r="A108" s="9" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B108" s="9" t="s">
         <v>421</v>
@@ -4766,22 +4769,22 @@
         <v>59</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="110" spans="1:30" ht="24" customHeight="1">
       <c r="B110" s="11"/>
       <c r="AA110" s="6" t="s">
-        <v>82</v>
+        <v>424</v>
       </c>
       <c r="AB110" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AC110" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AD110" s="6" t="s">
         <v>73</v>
@@ -4789,10 +4792,10 @@
     </row>
     <row r="112" spans="1:30" ht="24" customHeight="1">
       <c r="A112" s="9" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="113" spans="1:29" ht="24" customHeight="1">
@@ -4800,10 +4803,10 @@
         <v>85</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="114" spans="1:29" ht="24" customHeight="1">
@@ -4811,7 +4814,7 @@
     </row>
     <row r="116" spans="1:29" ht="24" customHeight="1">
       <c r="A116" s="9" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B116" s="9" t="s">
         <v>226</v>
@@ -4822,10 +4825,10 @@
         <v>41</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="118" spans="1:29" ht="24" customHeight="1">
@@ -4838,23 +4841,23 @@
     </row>
     <row r="122" spans="1:29" ht="24" customHeight="1">
       <c r="A122" s="12" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="123" spans="1:29" ht="24" customHeight="1">
       <c r="B123" s="13" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="125" spans="1:29" ht="24" customHeight="1">
       <c r="A125" s="9" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="126" spans="1:29" ht="24" customHeight="1">
@@ -4862,19 +4865,19 @@
         <v>59</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="127" spans="1:29" ht="24" customHeight="1">
       <c r="B127" s="11"/>
       <c r="AA127" s="6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AB127" s="6" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AC127" s="6" t="s">
         <v>73</v>
@@ -4882,23 +4885,23 @@
     </row>
     <row r="130" spans="1:29" ht="24" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="131" spans="1:29" ht="24" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="133" spans="1:29" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="134" spans="1:29" ht="24" customHeight="1">
@@ -4906,19 +4909,19 @@
         <v>59</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="135" spans="1:29" ht="24" customHeight="1">
       <c r="B135" s="11"/>
       <c r="AA135" s="6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AB135" s="6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AC135" s="6" t="s">
         <v>73</v>
@@ -4926,7 +4929,7 @@
     </row>
     <row r="137" spans="1:29" ht="24" customHeight="1">
       <c r="A137" s="9" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B137" s="9" t="s">
         <v>226</v>
@@ -4937,10 +4940,10 @@
         <v>41</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="139" spans="1:29" ht="24" customHeight="1">
@@ -4953,23 +4956,23 @@
     </row>
     <row r="143" spans="1:29" ht="24" customHeight="1">
       <c r="A143" s="12" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="144" spans="1:29" ht="24" customHeight="1">
       <c r="B144" s="13" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="146" spans="1:30" ht="24" customHeight="1">
       <c r="A146" s="9" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="147" spans="1:30" ht="24" customHeight="1">
@@ -4977,10 +4980,10 @@
         <v>178</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="148" spans="1:30" ht="24" customHeight="1">
@@ -4988,10 +4991,10 @@
     </row>
     <row r="150" spans="1:30" ht="24" customHeight="1">
       <c r="A150" s="9" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="151" spans="1:30" ht="24" customHeight="1">
@@ -4999,19 +5002,19 @@
         <v>59</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="152" spans="1:30" ht="24" customHeight="1">
       <c r="B152" s="11"/>
       <c r="AA152" s="6" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AB152" s="6" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AC152" s="6" t="s">
         <v>73</v>
@@ -5019,10 +5022,10 @@
     </row>
     <row r="154" spans="1:30" ht="24" customHeight="1">
       <c r="A154" s="9" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="155" spans="1:30" ht="24" customHeight="1">
@@ -5030,10 +5033,10 @@
         <v>59</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="156" spans="1:30" ht="24" customHeight="1">
@@ -5044,13 +5047,13 @@
     <row r="157" spans="1:30" ht="24" customHeight="1">
       <c r="B157" s="11"/>
       <c r="AA157" s="6" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AB157" s="6" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AC157" s="6" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AD157" s="6" t="s">
         <v>73</v>
@@ -5058,23 +5061,23 @@
     </row>
     <row r="160" spans="1:30" ht="24" customHeight="1">
       <c r="A160" s="12" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="24" customHeight="1">
       <c r="B161" s="13" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="24" customHeight="1">
       <c r="A163" s="9" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="24" customHeight="1">
@@ -5082,10 +5085,10 @@
         <v>178</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
@@ -5093,10 +5096,10 @@
     </row>
     <row r="167" spans="1:3" ht="24" customHeight="1">
       <c r="A167" s="9" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="24" customHeight="1">
@@ -5104,10 +5107,10 @@
         <v>41</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="24" customHeight="1">
@@ -5120,10 +5123,10 @@
     </row>
     <row r="172" spans="1:3" ht="24" customHeight="1">
       <c r="A172" s="9" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="24" customHeight="1">
@@ -5131,10 +5134,10 @@
         <v>178</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="24" customHeight="1">
@@ -5142,10 +5145,10 @@
     </row>
     <row r="176" spans="1:3" ht="24" customHeight="1">
       <c r="A176" s="9" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="177" spans="1:29" ht="24" customHeight="1">
@@ -5153,10 +5156,10 @@
         <v>41</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="178" spans="1:29" ht="24" customHeight="1">
@@ -5169,7 +5172,7 @@
     </row>
     <row r="181" spans="1:29" ht="24" customHeight="1">
       <c r="A181" s="9" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B181" s="9" t="s">
         <v>314</v>
@@ -5180,10 +5183,10 @@
         <v>41</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="183" spans="1:29" ht="24" customHeight="1">
@@ -5191,7 +5194,7 @@
     </row>
     <row r="185" spans="1:29" ht="24" customHeight="1">
       <c r="A185" s="9" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B185" s="9" t="s">
         <v>356</v>
@@ -5202,19 +5205,19 @@
         <v>59</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="187" spans="1:29" ht="24" customHeight="1">
       <c r="B187" s="11"/>
       <c r="AA187" s="6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AB187" s="6" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AC187" s="6" t="s">
         <v>73</v>
@@ -5306,20 +5309,20 @@
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
@@ -5330,10 +5333,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
@@ -5341,7 +5344,7 @@
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>50</v>
@@ -5352,10 +5355,10 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
@@ -5368,10 +5371,10 @@
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
@@ -5379,22 +5382,22 @@
         <v>59</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AD15" s="6" t="s">
         <v>73</v>
@@ -5402,10 +5405,10 @@
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
@@ -5413,10 +5416,10 @@
         <v>59</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -5427,13 +5430,13 @@
     <row r="20" spans="1:30" ht="24" customHeight="1">
       <c r="B20" s="11"/>
       <c r="AA20" s="6" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AD20" s="6" t="s">
         <v>73</v>

--- a/cmip6/models/access-cm2/cmip6_csiro-arccss-bom_access-cm2_seaice.xlsx
+++ b/cmip6/models/access-cm2/cmip6_csiro-arccss-bom_access-cm2_seaice.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dob04h\Documents\access\es-doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
@@ -15,12 +20,12 @@
     <sheet name="4. Thermodynamics" sheetId="6" r:id="rId6"/>
     <sheet name="5. Radiative Processes" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="578">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -34,15 +39,9 @@
     <t>Institute</t>
   </si>
   <si>
-    <t>CSIRO-ARCCSS-BOM</t>
-  </si>
-  <si>
     <t>Model</t>
   </si>
   <si>
-    <t>ACCESS-CM2</t>
-  </si>
-  <si>
     <t>Realm / Topic</t>
   </si>
   <si>
@@ -154,6 +153,9 @@
     <t>cmip6.seaice.key_properties.name</t>
   </si>
   <si>
+    <t>CICE 5.1.2</t>
+  </si>
+  <si>
     <t>1.1.1.2 *</t>
   </si>
   <si>
@@ -169,6 +171,9 @@
     <t>NOTE: Please enter a comma seperated list</t>
   </si>
   <si>
+    <t>sea ice, Los Alamos Sea Ice Model</t>
+  </si>
+  <si>
     <t>1.1.1.3 *</t>
   </si>
   <si>
@@ -184,6 +189,10 @@
     <t>NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
+    <t xml:space="preserve">
+The Los Alamos sea ice model (CICE) (Hunke_2015) has several interacting components: a thermodynamic model that computes local growth/melt rates of snow and ice due to vertical conductive, radiative and turbulent fluxes, along with snowfall; a model of ice dynamics, which predicts the velocity field of the ice pack based on a model of the material strength of the ice; a transport model that describes advection of the areal concentration, ice volumes and other state variables; and a ridging parameterization that transfers ice among thickness categories based on growth rates, energetic balances and rates of strain. External routines would prepare and execute data exchanges with an external “flux coupler,” which then passes the data to other climate model components such as POP.</t>
+  </si>
+  <si>
     <t>1.2.1</t>
   </si>
   <si>
@@ -208,12 +217,12 @@
     <t>cmip6.seaice.key_properties.variables.prognostic</t>
   </si>
   <si>
+    <t>Sea ice concentration</t>
+  </si>
+  <si>
     <t>Sea ice temperature</t>
   </si>
   <si>
-    <t>Sea ice concentration</t>
-  </si>
-  <si>
     <t>Sea ice thickness</t>
   </si>
   <si>
@@ -244,6 +253,24 @@
     <t>Other: document in cell to the right</t>
   </si>
   <si>
+    <t>Other: Snow volume per grid cell area</t>
+  </si>
+  <si>
+    <t>Other: Snow enthalpy</t>
+  </si>
+  <si>
+    <t>Other: Surface temperature</t>
+  </si>
+  <si>
+    <t>Other: Melt pond fraction</t>
+  </si>
+  <si>
+    <t>Other: Black carbon concentration</t>
+  </si>
+  <si>
+    <t>Other: Dust concentration</t>
+  </si>
+  <si>
     <t>1.3.1</t>
   </si>
   <si>
@@ -265,6 +292,9 @@
     <t>cmip6.seaice.key_properties.seawater_properties.ocean_freezing_point</t>
   </si>
   <si>
+    <t>Other: Assur_1958</t>
+  </si>
+  <si>
     <t>TEOS-10: Thermodynamic equation of seawater 2010.</t>
   </si>
   <si>
@@ -304,6 +334,9 @@
     <t>cmip6.seaice.key_properties.resolution.name</t>
   </si>
   <si>
+    <t>gx1v7</t>
+  </si>
+  <si>
     <t>1.4.1.2 *</t>
   </si>
   <si>
@@ -314,6 +347,9 @@
   </si>
   <si>
     <t>cmip6.seaice.key_properties.resolution.canonical_horizontal_resolution</t>
+  </si>
+  <si>
+    <t>one degree</t>
   </si>
   <si>
     <t>1.4.1.3 *</t>
@@ -357,6 +393,9 @@
     <t>cmip6.seaice.key_properties.tuning_applied.description</t>
   </si>
   <si>
+    <t xml:space="preserve">The CICE tuning is primarily achieved by adjusting the snow grain radius, which impacts the surface albedo through the radiative transfer calculation. The base value for dry snow (rsnw_nonmelt) is 500 microns, and a predefined standard deviation (rsnw_std) of 250 microns from observations is used for tuning in the following: rsnw = rsnw_nonmelt - r_snw*rsnw_std, where r_snw is adjusted for tuning and by default in our simulations is 1.25. Hence, the starting dry snow grain radius is 500-1.25*250 = 187.5 microns. Once melting starts (determined by dt_mlt), the snow grain radius grows linearly until it achieves a maximum snow grain radius at 0C. Currently, melting begins at dt_mlt = -1.5C and the maximum snow grain radius (rsnw_mlt) is 1500 microns. Tuning of the r_snw value and also sometimes dt_mlt and the maximum snow grain radius value is used to adjust the surface albedo. This is typically done to reach a reasonable sea ice thickness and summer snow cover in pre-industrial control simulations, where "reasonable" is based on expert judgement. </t>
+  </si>
+  <si>
     <t>1.5.1.2 *</t>
   </si>
   <si>
@@ -369,6 +408,9 @@
     <t>cmip6.seaice.key_properties.tuning_applied.target</t>
   </si>
   <si>
+    <t>The aim is to get the best mean thickness and seasonal cycle in both hemispheres in pre-industrial control simulations.</t>
+  </si>
+  <si>
     <t>1.5.1.3 *</t>
   </si>
   <si>
@@ -381,6 +423,9 @@
     <t>cmip6.seaice.key_properties.tuning_applied.simulations</t>
   </si>
   <si>
+    <t>Only the pi-control was tuned. These were the same parameters then used for all subsequent runs.</t>
+  </si>
+  <si>
     <t>1.5.1.4 *</t>
   </si>
   <si>
@@ -393,6 +438,9 @@
     <t>cmip6.seaice.key_properties.tuning_applied.metrics_used</t>
   </si>
   <si>
+    <t xml:space="preserve">We look at the IceSat sea ice thickness in the Arctic, PIOMAS thickness estimates, and the mean NSIDC ice extent from 1979 to the present. </t>
+  </si>
+  <si>
     <t xml:space="preserve">1.5.1.5 </t>
   </si>
   <si>
@@ -403,6 +451,9 @@
   </si>
   <si>
     <t>cmip6.seaice.key_properties.tuning_applied.variables</t>
+  </si>
+  <si>
+    <t>r_snw, dt_mlt, rsnw_melt</t>
   </si>
   <si>
     <t>1.6.1</t>
@@ -464,6 +515,9 @@
     <t>cmip6.seaice.key_properties.key_parameter_values.additional_parameters</t>
   </si>
   <si>
+    <t xml:space="preserve">emissivity = 0.95, dragio = 0.00536, iceruf = 0.0005 m, hs_min = 1.0e-4 m, rhos = 300 kg/m3, Cf = 17, rhoi = 917 kg/m3 </t>
+  </si>
+  <si>
     <t>1.7.1</t>
   </si>
   <si>
@@ -482,6 +536,9 @@
     <t>cmip6.seaice.key_properties.assumptions.description</t>
   </si>
   <si>
+    <t>See Hunke_2015.</t>
+  </si>
+  <si>
     <t>1.7.1.2 *</t>
   </si>
   <si>
@@ -492,6 +549,9 @@
   </si>
   <si>
     <t>cmip6.seaice.key_properties.assumptions.on_diagnostic_variables</t>
+  </si>
+  <si>
+    <t>The flux exchange of salt and water with the ocean component assumes a constant sea ice salinity of 4 psu and an ocean reference salinity of 34.7. The prognostic salinity in the thermodynamics is only used internally for the thermal properties of the ice. Melt pond fraction/depth and snow fraction only impact the albedo and shortwave calculation. These are not in the SIMIP variables.</t>
   </si>
   <si>
     <t>1.7.1.3 *</t>
@@ -525,6 +585,9 @@
     <t>cmip6.seaice.key_properties.conservation.description</t>
   </si>
   <si>
+    <t xml:space="preserve">We conserve fresh water, energy, and salt. </t>
+  </si>
+  <si>
     <t>1.8.1.2 *</t>
   </si>
   <si>
@@ -535,6 +598,9 @@
   </si>
   <si>
     <t>cmip6.seaice.key_properties.conservation.properties</t>
+  </si>
+  <si>
+    <t>Other: Water</t>
   </si>
   <si>
     <t>Energy</t>
@@ -560,6 +626,9 @@
     <t>cmip6.seaice.key_properties.conservation.budget</t>
   </si>
   <si>
+    <t>Energy, siflsenstop, siflswdtop, siflswutop, siflswdbot, sifllwdtop, sifllwutop, siflsensupbot, sisnhc, sihc : Fresh Water,   sidmassevapsubl, sidmassgrowthbot, sidmassgrowthwat, sidmasslat, sidmassmeltbot, sidmassmelttop, sidmasssi, siflfwbot, sipr, … : Salt, sidmassgrowthbot, sidmassgrowthwat, sidmasslat, sidmassmeltbot, sidmassmelttop, sidmasssi, siflsaltbot ... Note that to balance with changes in sea ice and snow thickness, these are monthly mean values and the changes must be estimated from these. For more on the SIMIP variable request and the budgets see Notz_2016.</t>
+  </si>
+  <si>
     <t>1.8.1.4 *</t>
   </si>
   <si>
@@ -615,6 +684,9 @@
     <t>cmip6.seaice.grid.overview</t>
   </si>
   <si>
+    <t>Greenland dipolar grid with equatorial meridional refinement.</t>
+  </si>
+  <si>
     <t>2.1.2</t>
   </si>
   <si>
@@ -654,6 +726,9 @@
     <t>cmip6.seaice.grid.discretisation.horizontal.grid_type</t>
   </si>
   <si>
+    <t>Rotated north pole</t>
+  </si>
+  <si>
     <t>Structured grid</t>
   </si>
   <si>
@@ -741,15 +816,15 @@
     <t>cmip6.seaice.grid.discretisation.vertical.layering</t>
   </si>
   <si>
+    <t>Multi-layers: Simulation uses more than two layers.</t>
+  </si>
+  <si>
     <t>Zero-layer: Simulation has no internal ice thermodynamics.</t>
   </si>
   <si>
     <t>Two-layers: Simulation uses two layers (i.e. one ice and one snow layer).</t>
   </si>
   <si>
-    <t>Multi-layers: Simulation uses more than two layers.</t>
-  </si>
-  <si>
     <t>2.1.3.2 *</t>
   </si>
   <si>
@@ -771,6 +846,9 @@
     <t>cmip6.seaice.grid.discretisation.vertical.additional_details</t>
   </si>
   <si>
+    <t>We use an extra surface scattering layer in the radiation. Black carbon and dust are distributed vertically within the surface scattering layer and a single interior layer for both ice and snow.</t>
+  </si>
+  <si>
     <t>2.2.1</t>
   </si>
   <si>
@@ -816,6 +894,9 @@
     <t>cmip6.seaice.grid.seaice_categories.category_limits</t>
   </si>
   <si>
+    <t>0, 0.6445, 1.3914, 2.4702, 4.5673, 9.338m*</t>
+  </si>
+  <si>
     <t>2.2.1.4 *</t>
   </si>
   <si>
@@ -826,6 +907,9 @@
   </si>
   <si>
     <t>cmip6.seaice.grid.seaice_categories.ice_thickness_distribution</t>
+  </si>
+  <si>
+    <t>The sea ice thickness distribution is described in Bitz_2001 and Lipscomb_2007. We use an exponential formulation as in Lipscomb_2007. *Note that the 5th category upper bound is not used to limit the sea ice thickness.</t>
   </si>
   <si>
     <t xml:space="preserve">2.2.1.5 </t>
@@ -888,6 +972,9 @@
     <t>cmip6.seaice.grid.snow_on_seaice.snow_fraction</t>
   </si>
   <si>
+    <t>The snow fraction is a function of the snow depth and is only used in the shortwave radiation code.</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.3.1.4 </t>
   </si>
   <si>
@@ -915,6 +1002,9 @@
     <t>cmip6.seaice.dynamics.name</t>
   </si>
   <si>
+    <t>EVP</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.1.1.2 </t>
   </si>
   <si>
@@ -924,6 +1014,9 @@
     <t>cmip6.seaice.dynamics.overview</t>
   </si>
   <si>
+    <t>The elastic-viscous-plastic (EVP) model (Hunke_1997) represents a modification of the standard viscous-plastic (VP) model for sea ice dynamics. It reduces to the VP model at time scales associated with the wind forcing, while at shorter time scales the adjustment process takes place by a numerically more efficient elastic wave mechanism. While retaining the essential physics, this elastic wave modification leads to a fully explicit numerical scheme which greatly improves the model’s computational efficiency. We use the incremental remapping option for advection from Lipscomb_2004.</t>
+  </si>
+  <si>
     <t>3.1.1.3 *</t>
   </si>
   <si>
@@ -969,12 +1062,12 @@
     <t>cmip6.seaice.dynamics.ice_strength_formulation</t>
   </si>
   <si>
+    <t>Rothrock 1975</t>
+  </si>
+  <si>
     <t>Hibler 1979</t>
   </si>
   <si>
-    <t>Rothrock 1975</t>
-  </si>
-  <si>
     <t>3.1.1.6 *</t>
   </si>
   <si>
@@ -1041,6 +1134,9 @@
     <t>cmip6.seaice.thermodynamics.name</t>
   </si>
   <si>
+    <t>Mushy-Layer, Turner_2015</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.1.1.2 </t>
   </si>
   <si>
@@ -1050,6 +1146,9 @@
     <t>cmip6.seaice.thermodynamics.overview</t>
   </si>
   <si>
+    <t>Vertical thermodynamics includes bulk salinity as a prognostic variable. More information is available in Turner_2015.</t>
+  </si>
+  <si>
     <t>4.2.1</t>
   </si>
   <si>
@@ -1071,6 +1170,9 @@
     <t>cmip6.seaice.thermodynamics.energy.enthalpy_formulation</t>
   </si>
   <si>
+    <t>Other: Mushy layer formulation - Pure ice latent and sensible heat and brine enthalpy with a time evolving liquid fraction</t>
+  </si>
+  <si>
     <t>Pure ice latent heat (Semtner 0-layer)</t>
   </si>
   <si>
@@ -1095,12 +1197,12 @@
     <t>cmip6.seaice.thermodynamics.energy.thermal_conductivity</t>
   </si>
   <si>
+    <t>Saline ice</t>
+  </si>
+  <si>
     <t>Pure ice</t>
   </si>
   <si>
-    <t>Saline ice</t>
-  </si>
-  <si>
     <t>4.2.1.3 *</t>
   </si>
   <si>
@@ -1113,15 +1215,15 @@
     <t>cmip6.seaice.thermodynamics.energy.heat_diffusion</t>
   </si>
   <si>
+    <t>Conduction, radiation and latent heat transport</t>
+  </si>
+  <si>
     <t>Conduction fluxes</t>
   </si>
   <si>
     <t>Conduction and radiation heat fluxes</t>
   </si>
   <si>
-    <t>Conduction, radiation and latent heat transport</t>
-  </si>
-  <si>
     <t>4.2.1.4 *</t>
   </si>
   <si>
@@ -1134,13 +1236,13 @@
     <t>cmip6.seaice.thermodynamics.energy.basal_heat_flux</t>
   </si>
   <si>
+    <t>Thermal Varying Salinity: Thermal properties depend on S-T (with varying salinity.</t>
+  </si>
+  <si>
     <t>Heat Reservoir: Brine inclusions treated as a heat reservoir.</t>
   </si>
   <si>
     <t>Thermal Fixed Salinity: Thermal properties depend on S-T (with fixed salinity).</t>
-  </si>
-  <si>
-    <t>Thermal Varying Salinity: Thermal properties depend on S-T (with varying salinity.</t>
   </si>
   <si>
     <t xml:space="preserve">4.2.1.5 </t>
@@ -1168,6 +1270,9 @@
     <t>cmip6.seaice.thermodynamics.energy.heat_content_of_precipitation</t>
   </si>
   <si>
+    <t>Heat content of precipitation is ignored.</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.2.1.7 </t>
   </si>
   <si>
@@ -1181,6 +1286,9 @@
     <t>cmip6.seaice.thermodynamics.energy.precipitation_effects_on_salinity</t>
   </si>
   <si>
+    <t>Snowfall on sea ice is accumulated and accounted for in the snow component of the model. Rainfall on the sea ice goes directly to the ocean via the fresh water flux.</t>
+  </si>
+  <si>
     <t>4.3.1</t>
   </si>
   <si>
@@ -1202,6 +1310,9 @@
     <t>cmip6.seaice.thermodynamics.mass.new_ice_formation</t>
   </si>
   <si>
+    <t>Frazil ice is formed in the ocean when the temperature drops below the salinity-dependent freezing point. This implied heat flux is given to the sea ice model and it must form this amount of ice. The mushy-layer thermodynamics (Turner_2015) takes up both solid ice and salt water. This additional salt water taken up by the sea ice is sent back to the ocean as a part of the fresh water and salt fluxes.</t>
+  </si>
+  <si>
     <t>4.3.1.2 *</t>
   </si>
   <si>
@@ -1214,6 +1325,9 @@
     <t>cmip6.seaice.thermodynamics.mass.ice_vertical_growth_and_melt</t>
   </si>
   <si>
+    <t>Vertical melt and growth is computed based on the balance of fluxes at the base or surface of the sea ice.</t>
+  </si>
+  <si>
     <t>4.3.1.3 *</t>
   </si>
   <si>
@@ -1244,6 +1358,9 @@
     <t>cmip6.seaice.thermodynamics.mass.ice_surface_sublimation</t>
   </si>
   <si>
+    <t>If latent heat is transferred from the ice to the atmosphere, snow or snow-free ice sublimates at the top surface. If the latent heat flux is positive (transferred from the atmosphere to the ice), vapor from the atmosphere is deposited at the surface as snow or ice.</t>
+  </si>
+  <si>
     <t>4.3.1.5 *</t>
   </si>
   <si>
@@ -1254,6 +1371,9 @@
   </si>
   <si>
     <t>cmip6.seaice.thermodynamics.mass.frazil_ice</t>
+  </si>
+  <si>
+    <t>Frazil ice is formed in the ocean when the temperature drops below the salinity-dependent freezing point. This implied heat flux is given to the sea ice model and it must form this amount of ice. The mushy-layer thermodynamics (Turner_2015) takes up solid ice and salt water. This additional salt water taken up by the sea ice is sent back to the ocean as a part of the fresh water and salt fluxes.</t>
   </si>
   <si>
     <t>4.4.1</t>
@@ -1311,15 +1431,15 @@
     <t>cmip6.seaice.thermodynamics.salt.mass_transport.salinity_type</t>
   </si>
   <si>
+    <t>Prognostic salinity profile</t>
+  </si>
+  <si>
     <t>Constant</t>
   </si>
   <si>
     <t>Prescribed salinity profile</t>
   </si>
   <si>
-    <t>Prognostic salinity profile</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.4.2.2 </t>
   </si>
   <si>
@@ -1341,6 +1461,9 @@
     <t>cmip6.seaice.thermodynamics.salt.mass_transport.additional_details</t>
   </si>
   <si>
+    <t>The salinity is computed prognostically as in Turner_2015.</t>
+  </si>
+  <si>
     <t>4.4.3</t>
   </si>
   <si>
@@ -1428,6 +1551,9 @@
     <t>cmip6.seaice.thermodynamics.ice_floe_size_distribution.additional_details</t>
   </si>
   <si>
+    <t>Constant value of 300m. This is based on Steele_1992.</t>
+  </si>
+  <si>
     <t>4.7.1</t>
   </si>
   <si>
@@ -1461,12 +1587,12 @@
     <t>cmip6.seaice.thermodynamics.melt_ponds.formulation</t>
   </si>
   <si>
+    <t>Level-ice melt ponds</t>
+  </si>
+  <si>
     <t>Flocco and Feltham (2010)</t>
   </si>
   <si>
-    <t>Level-ice melt ponds</t>
-  </si>
-  <si>
     <t>4.7.1.3 *</t>
   </si>
   <si>
@@ -1545,6 +1671,9 @@
     <t>cmip6.seaice.thermodynamics.snow_processes.snow_ice_formation_scheme</t>
   </si>
   <si>
+    <t>Snow ice is formed in the Turner_2015 thermodynamics.</t>
+  </si>
+  <si>
     <t>4.8.1.5 *</t>
   </si>
   <si>
@@ -1554,6 +1683,9 @@
     <t>cmip6.seaice.thermodynamics.snow_processes.redistribution</t>
   </si>
   <si>
+    <t>50% is lost to the ocean.</t>
+  </si>
+  <si>
     <t>4.8.1.6 *</t>
   </si>
   <si>
@@ -1587,6 +1719,9 @@
     <t>cmip6.seaice.radiative_processes.name</t>
   </si>
   <si>
+    <t>delta-Eddington shortwave</t>
+  </si>
+  <si>
     <t xml:space="preserve">5.1.1.2 </t>
   </si>
   <si>
@@ -1596,6 +1731,9 @@
     <t>cmip6.seaice.radiative_processes.overview</t>
   </si>
   <si>
+    <t xml:space="preserve">As describe in Briegleb_2007, the Delta-Eddington model is a multiple scattering radiative transfer model that treats the interactions between solar radiation and snow and sea ice. Optical properties for snow and sea ice are prescribed based on physical measurements. Effects of absorption due to black carbon and dust, which are prognostic variables, are included (Holland_2012). </t>
+  </si>
+  <si>
     <t>5.1.1.3 *</t>
   </si>
   <si>
@@ -1633,12 +1771,18 @@
   </si>
   <si>
     <t>Ice radiation transmission per category: Radiation transmission through ice is different for each sea ice category.</t>
+  </si>
+  <si>
+    <t>CSIRO-ARCCSS-BOM</t>
+  </si>
+  <si>
+    <t>ACCESS-CM2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="15">
     <font>
       <sz val="11"/>
@@ -1835,6 +1979,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1881,7 +2033,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1913,9 +2065,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1947,6 +2100,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2122,10 +2276,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2134,12 +2290,12 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="33.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="20.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2147,99 +2303,99 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="20.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="20.25">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="4" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="20.25">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="3" t="s">
+    <row r="8" spans="1:2" ht="20.25">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="1:2" ht="20.25">
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="20.25">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="B9" s="4" t="s">
+    <row r="11" spans="1:2" ht="20.25">
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="B10" s="4" t="s">
+    <row r="12" spans="1:2" ht="20.25">
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="B11" s="4" t="s">
+    <row r="14" spans="1:2" ht="18">
+      <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="B12" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="5" t="s">
+    <row r="15" spans="1:2" ht="18">
+      <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="5" t="s">
+    <row r="16" spans="1:2" ht="18">
+      <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="5" t="s">
+    <row r="17" spans="1:2" ht="18">
+      <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="5" t="s">
+    <row r="19" spans="1:2" ht="20.25">
+      <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:2" ht="20.25">
+      <c r="A20" s="3" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="B20" s="4"/>
     </row>
@@ -2253,8 +2409,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2265,70 +2421,70 @@
     <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="30">
       <c r="A1" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="7"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18">
       <c r="A5" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" s="9"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75">
+      <c r="A8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="18">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="18">
       <c r="A12" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" s="9"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75">
       <c r="A16" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
     </row>
@@ -2350,8 +2506,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD149"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL165"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2365,65 +2521,69 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
       <c r="A5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="10" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1">
+      <c r="B6" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
       <c r="A9" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="24" customHeight="1">
+      <c r="B11" s="11" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="24" customHeight="1">
-      <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
@@ -2435,7 +2595,7 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>51</v>
@@ -2449,759 +2609,1384 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="178" customHeight="1">
-      <c r="B16" s="11"/>
+    <row r="16" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B16" s="11" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="19" spans="1:38" ht="24" customHeight="1">
       <c r="A19" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:38" ht="24" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:38" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:38" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:38" ht="24" customHeight="1">
       <c r="B24" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:38" ht="24" customHeight="1">
-      <c r="B25" s="11"/>
+      <c r="B25" s="11" t="s">
+        <v>63</v>
+      </c>
       <c r="AA25" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AB25" s="6" t="s">
         <v>63</v>
       </c>
       <c r="AC25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD25" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE25" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF25" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG25" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI25" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ25" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK25" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL25" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" ht="24" customHeight="1">
+      <c r="B26" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA26" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AD25" s="6" t="s">
+      <c r="AB26" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC26" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AE25" s="6" t="s">
+      <c r="AD26" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="AF25" s="6" t="s">
+      <c r="AE26" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="AG25" s="6" t="s">
+      <c r="AF26" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AH25" s="6" t="s">
+      <c r="AG26" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="AI25" s="6" t="s">
+      <c r="AH26" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AJ25" s="6" t="s">
+      <c r="AI26" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AK25" s="6" t="s">
+      <c r="AJ26" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AL25" s="6" t="s">
+      <c r="AK26" s="6" t="s">
         <v>73</v>
       </c>
+      <c r="AL26" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" ht="24" customHeight="1">
+      <c r="B27" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA27" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB27" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC27" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD27" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE27" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF27" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG27" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ27" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK27" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL27" s="6" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="28" spans="1:38" ht="24" customHeight="1">
-      <c r="A28" s="12" t="s">
+      <c r="B28" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA28" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB28" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC28" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD28" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE28" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF28" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG28" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH28" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI28" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ28" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK28" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL28" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="12" t="s">
+    </row>
+    <row r="29" spans="1:38" ht="24" customHeight="1">
+      <c r="B29" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA29" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB29" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC29" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD29" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE29" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF29" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG29" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH29" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI29" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ29" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK29" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL29" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" ht="24" customHeight="1">
+      <c r="B30" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA30" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB30" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC30" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD30" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE30" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF30" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG30" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH30" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI30" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ30" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK30" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL30" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" ht="24" customHeight="1">
+      <c r="B31" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB31" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC31" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD31" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE31" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF31" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG31" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI31" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ31" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK31" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL31" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" ht="24" customHeight="1">
+      <c r="B32" s="11" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="29" spans="1:38" ht="24" customHeight="1">
-      <c r="B29" s="13" t="s">
+      <c r="AA32" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB32" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD32" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE32" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF32" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG32" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI32" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ32" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK32" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL32" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:38" ht="24" customHeight="1">
+      <c r="B33" s="11" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="31" spans="1:38" ht="24" customHeight="1">
-      <c r="A31" s="9" t="s">
+      <c r="AA33" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB33" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC33" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD33" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE33" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF33" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG33" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH33" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI33" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ33" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK33" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL33" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:38" ht="24" customHeight="1">
+      <c r="B34" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="AA34" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB34" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD34" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE34" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF34" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG34" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH34" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI34" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ34" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK34" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL34" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:38" ht="24" customHeight="1">
+      <c r="B35" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="32" spans="1:38" ht="24" customHeight="1">
-      <c r="A32" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="10" t="s">
+      <c r="AA35" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB35" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC35" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD35" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE35" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF35" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG35" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH35" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI35" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ35" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK35" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL35" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:38" ht="24" customHeight="1">
+      <c r="B36" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="AA36" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB36" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD36" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE36" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF36" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG36" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH36" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI36" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ36" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK36" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL36" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:38" ht="24" customHeight="1">
+      <c r="B37" s="11" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="33" spans="1:29" ht="24" customHeight="1">
-      <c r="B33" s="11"/>
-      <c r="AA33" s="6" t="s">
+      <c r="AA37" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB37" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC37" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD37" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE37" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF37" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG37" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH37" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI37" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ37" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK37" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL37" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:38" ht="24" customHeight="1">
+      <c r="A40" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="AB33" s="6" t="s">
+      <c r="B40" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="AC33" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" ht="24" customHeight="1">
-      <c r="A35" s="9" t="s">
+    </row>
+    <row r="41" spans="1:38" ht="24" customHeight="1">
+      <c r="B41" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="9" t="s">
+    </row>
+    <row r="43" spans="1:38" ht="24" customHeight="1">
+      <c r="A43" s="9" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="36" spans="1:29" ht="24" customHeight="1">
-      <c r="A36" s="14" t="s">
+      <c r="B43" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="10" t="s">
+    </row>
+    <row r="44" spans="1:38" ht="24" customHeight="1">
+      <c r="A44" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C44" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="24" customHeight="1">
-      <c r="B37" s="11"/>
-    </row>
-    <row r="40" spans="1:29" ht="24" customHeight="1">
-      <c r="A40" s="12" t="s">
+    <row r="45" spans="1:38" ht="24" customHeight="1">
+      <c r="B45" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="AA45" s="6" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="41" spans="1:29" ht="24" customHeight="1">
-      <c r="B41" s="13" t="s">
+      <c r="AB45" s="6" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="43" spans="1:29" ht="24" customHeight="1">
-      <c r="A43" s="9" t="s">
+      <c r="AC45" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:38" ht="24" customHeight="1">
+      <c r="A47" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" ht="24" customHeight="1">
-      <c r="A44" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" s="10" t="s">
+      <c r="B47" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="10" t="s">
+    </row>
+    <row r="48" spans="1:38" ht="24" customHeight="1">
+      <c r="A48" s="14" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="45" spans="1:29" ht="24" customHeight="1">
-      <c r="B45" s="11"/>
-    </row>
-    <row r="47" spans="1:29" ht="24" customHeight="1">
-      <c r="A47" s="9" t="s">
+      <c r="B48" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="C48" s="10" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" ht="24" customHeight="1">
-      <c r="A48" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="B49" s="11"/>
     </row>
-    <row r="51" spans="1:3" ht="24" customHeight="1">
-      <c r="A51" s="9" t="s">
+    <row r="52" spans="1:3" ht="24" customHeight="1">
+      <c r="A52" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="24" customHeight="1">
+      <c r="B53" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="9" t="s">
+    </row>
+    <row r="55" spans="1:3" ht="24" customHeight="1">
+      <c r="A55" s="9" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="24" customHeight="1">
-      <c r="A52" s="14" t="s">
+      <c r="B55" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="24" customHeight="1">
+      <c r="A56" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="C56" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C52" s="10" t="s">
+    </row>
+    <row r="57" spans="1:3" ht="24" customHeight="1">
+      <c r="B57" s="11" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="24" customHeight="1">
-      <c r="B53" s="11"/>
-    </row>
-    <row r="56" spans="1:3" ht="24" customHeight="1">
-      <c r="A56" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="24" customHeight="1">
-      <c r="B57" s="13" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
       <c r="A60" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B60" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="24" customHeight="1">
+      <c r="B61" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="24" customHeight="1">
+      <c r="A63" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="B63" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="24" customHeight="1">
-      <c r="B61" s="8" t="s">
+    <row r="64" spans="1:3" ht="24" customHeight="1">
+      <c r="A64" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="24" customHeight="1">
+      <c r="B65" s="11">
+        <v>122880</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="24" customHeight="1">
+      <c r="A68" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="24" customHeight="1">
+      <c r="B69" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="24" customHeight="1">
+      <c r="A71" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="24" customHeight="1">
+      <c r="A72" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="24" customHeight="1">
+      <c r="B73" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="178" customHeight="1">
-      <c r="B62" s="11"/>
-    </row>
-    <row r="64" spans="1:3" ht="24" customHeight="1">
-      <c r="A64" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="24" customHeight="1">
-      <c r="A65" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="24" customHeight="1">
-      <c r="B66" s="11"/>
-    </row>
-    <row r="68" spans="1:3" ht="24" customHeight="1">
-      <c r="A68" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="24" customHeight="1">
-      <c r="A69" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="24" customHeight="1">
-      <c r="B70" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="24" customHeight="1">
-      <c r="B71" s="11"/>
-    </row>
-    <row r="73" spans="1:3" ht="24" customHeight="1">
-      <c r="A73" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="24" customHeight="1">
-      <c r="A74" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B74" s="10" t="s">
+    <row r="74" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B74" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C74" s="10" t="s">
+    </row>
+    <row r="76" spans="1:3" ht="24" customHeight="1">
+      <c r="A76" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" ht="24" customHeight="1">
-      <c r="B75" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="24" customHeight="1">
-      <c r="B76" s="11"/>
+      <c r="B76" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="24" customHeight="1">
+      <c r="A77" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
-      <c r="A78" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="24" customHeight="1">
-      <c r="A79" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C79" s="10" t="s">
+      <c r="B78" s="11" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="24" customHeight="1">
-      <c r="B80" s="8" t="s">
-        <v>48</v>
+      <c r="A80" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
-      <c r="B81" s="11"/>
-    </row>
-    <row r="84" spans="1:3" ht="24" customHeight="1">
-      <c r="A84" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B84" s="12" t="s">
-        <v>127</v>
+      <c r="A81" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="24" customHeight="1">
+      <c r="B82" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="24" customHeight="1">
+      <c r="B83" s="11" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
-      <c r="B85" s="13" t="s">
-        <v>128</v>
+      <c r="A85" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="24" customHeight="1">
+      <c r="A86" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
-      <c r="A87" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>130</v>
+      <c r="B87" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
-      <c r="A88" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="24" customHeight="1">
-      <c r="B89" s="11"/>
+      <c r="B88" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="24" customHeight="1">
+      <c r="A90" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="A91" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>134</v>
+      <c r="A91" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
-      <c r="A92" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>136</v>
+      <c r="B92" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
-      <c r="B93" s="11"/>
-    </row>
-    <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="A95" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>138</v>
+      <c r="B93" s="11" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
-      <c r="A96" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B96" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>140</v>
+      <c r="A96" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
-      <c r="B97" s="11"/>
+      <c r="B97" s="13" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
       <c r="A100" s="14" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
-      <c r="B101" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="24" customHeight="1">
-      <c r="B102" s="11"/>
+      <c r="B101" s="11">
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="24" customHeight="1">
+      <c r="A103" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="24" customHeight="1">
+      <c r="A104" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
-      <c r="A105" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B105" s="12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="24" customHeight="1">
-      <c r="B106" s="13" t="s">
-        <v>147</v>
+      <c r="B105" s="11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="24" customHeight="1">
+      <c r="A107" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
-      <c r="A108" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>107</v>
+      <c r="A108" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
-      <c r="A109" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B109" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="24" customHeight="1">
-      <c r="B110" s="8" t="s">
+      <c r="B109" s="11">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="24" customHeight="1">
+      <c r="A111" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="24" customHeight="1">
+      <c r="A112" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="24" customHeight="1">
+      <c r="B113" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="24" customHeight="1">
+      <c r="B114" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="24" customHeight="1">
+      <c r="A117" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="24" customHeight="1">
+      <c r="B118" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="24" customHeight="1">
+      <c r="A120" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="24" customHeight="1">
+      <c r="A121" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="24" customHeight="1">
+      <c r="B122" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="178" customHeight="1">
-      <c r="B111" s="11"/>
-    </row>
-    <row r="113" spans="1:3" ht="24" customHeight="1">
-      <c r="A113" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="24" customHeight="1">
-      <c r="A114" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B114" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="24" customHeight="1">
-      <c r="B115" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="24" customHeight="1">
-      <c r="B116" s="11"/>
-    </row>
-    <row r="118" spans="1:3" ht="24" customHeight="1">
-      <c r="A118" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="24" customHeight="1">
-      <c r="A119" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B119" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="24" customHeight="1">
-      <c r="B120" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="24" customHeight="1">
-      <c r="B121" s="11"/>
-    </row>
-    <row r="124" spans="1:3" ht="24" customHeight="1">
-      <c r="A124" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="B124" s="12" t="s">
-        <v>160</v>
+    <row r="123" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B123" s="11" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
-      <c r="B125" s="13" t="s">
-        <v>161</v>
+      <c r="A125" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="24" customHeight="1">
+      <c r="A126" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="24" customHeight="1">
-      <c r="A127" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B127" s="9" t="s">
-        <v>107</v>
+      <c r="B127" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="24" customHeight="1">
-      <c r="A128" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B128" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="129" spans="1:30" ht="24" customHeight="1">
-      <c r="B129" s="8" t="s">
+      <c r="B128" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="24" customHeight="1">
+      <c r="A130" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="24" customHeight="1">
+      <c r="A131" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="24" customHeight="1">
+      <c r="B132" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="24" customHeight="1">
+      <c r="B133" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="24" customHeight="1">
+      <c r="A136" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="24" customHeight="1">
+      <c r="B137" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="24" customHeight="1">
+      <c r="A139" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="24" customHeight="1">
+      <c r="A140" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="24" customHeight="1">
+      <c r="B141" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="130" spans="1:30" ht="178" customHeight="1">
-      <c r="B130" s="11"/>
-    </row>
-    <row r="132" spans="1:30" ht="24" customHeight="1">
-      <c r="A132" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="133" spans="1:30" ht="24" customHeight="1">
-      <c r="A133" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B133" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="134" spans="1:30" ht="24" customHeight="1">
-      <c r="B134" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="135" spans="1:30" ht="24" customHeight="1">
-      <c r="B135" s="11"/>
-      <c r="AA135" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="AB135" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="AC135" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="AD135" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="137" spans="1:30" ht="24" customHeight="1">
-      <c r="A137" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B137" s="9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="138" spans="1:30" ht="24" customHeight="1">
-      <c r="A138" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B138" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="139" spans="1:30" ht="24" customHeight="1">
-      <c r="B139" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="140" spans="1:30" ht="24" customHeight="1">
-      <c r="B140" s="11"/>
-    </row>
-    <row r="142" spans="1:30" ht="24" customHeight="1">
-      <c r="A142" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="B142" s="9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="143" spans="1:30" ht="24" customHeight="1">
-      <c r="A143" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="B143" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C143" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="144" spans="1:30" ht="24" customHeight="1">
-      <c r="B144" s="11"/>
-    </row>
-    <row r="146" spans="1:3" ht="24" customHeight="1">
-      <c r="A146" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="24" customHeight="1">
-      <c r="A147" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B147" s="10" t="s">
+    <row r="142" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B142" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="C147" s="10" t="s">
+    </row>
+    <row r="144" spans="1:3" ht="24" customHeight="1">
+      <c r="A144" s="9" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" ht="24" customHeight="1">
-      <c r="B148" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="24" customHeight="1">
-      <c r="B149" s="11"/>
+      <c r="B144" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="145" spans="1:30" ht="24" customHeight="1">
+      <c r="A145" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="146" spans="1:30" ht="24" customHeight="1">
+      <c r="B146" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="147" spans="1:30" ht="24" customHeight="1">
+      <c r="B147" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA147" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB147" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC147" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD147" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="148" spans="1:30" ht="24" customHeight="1">
+      <c r="B148" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA148" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB148" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC148" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD148" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="149" spans="1:30" ht="24" customHeight="1">
+      <c r="B149" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA149" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB149" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC149" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD149" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="151" spans="1:30" ht="24" customHeight="1">
+      <c r="A151" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="152" spans="1:30" ht="24" customHeight="1">
+      <c r="A152" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B152" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="153" spans="1:30" ht="24" customHeight="1">
+      <c r="B153" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="154" spans="1:30" ht="24" customHeight="1">
+      <c r="B154" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="155" spans="1:30" ht="24" customHeight="1">
+      <c r="B155" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="157" spans="1:30" ht="24" customHeight="1">
+      <c r="A157" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="158" spans="1:30" ht="24" customHeight="1">
+      <c r="A158" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="159" spans="1:30" ht="24" customHeight="1">
+      <c r="B159" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="160" spans="1:30" ht="24" customHeight="1">
+      <c r="B160" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="24" customHeight="1">
+      <c r="A162" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="24" customHeight="1">
+      <c r="A163" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="24" customHeight="1">
+      <c r="B164" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="24" customHeight="1">
+      <c r="B165" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="9">
+  <dataValidations count="24">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
       <formula1>AA25:AL25</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26">
+      <formula1>AA26:AL26</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
+      <formula1>AA27:AL27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
+      <formula1>AA28:AL28</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29">
+      <formula1>AA29:AL29</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
+      <formula1>AA30:AL30</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
+      <formula1>AA31:AL31</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
+      <formula1>AA32:AL32</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
-      <formula1>AA33:AC33</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53">
+      <formula1>AA33:AL33</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34">
+      <formula1>AA34:AL34</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
+      <formula1>AA35:AL35</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36">
+      <formula1>AA36:AL36</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37">
+      <formula1>AA37:AL37</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45">
+      <formula1>AA45:AC45</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B49">
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B65">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B89">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B135">
-      <formula1>AA135:AD135</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B144">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B101">
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B105">
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B109">
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B147">
+      <formula1>AA147:AD147</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B148">
+      <formula1>AA148:AD148</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B149">
+      <formula1>AA149:AD149</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B159">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B160">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3210,8 +3995,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD107"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3225,42 +4010,44 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>50</v>
@@ -3268,13 +4055,13 @@
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
       <c r="A9" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3282,185 +4069,197 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+    <row r="11" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
-      <c r="B19" s="11"/>
+      <c r="B19" s="11" t="s">
+        <v>222</v>
+      </c>
       <c r="AA19" s="6" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
-      <c r="B23" s="11"/>
+      <c r="B23" s="11" t="s">
+        <v>229</v>
+      </c>
       <c r="AA23" s="6" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
-      <c r="B27" s="11"/>
+      <c r="B27" s="11" t="s">
+        <v>237</v>
+      </c>
       <c r="AA27" s="6" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
-      <c r="B31" s="11"/>
+      <c r="B31" s="11">
+        <v>1800</v>
+      </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="B35" s="11"/>
+      <c r="B35" s="11">
+        <v>1800</v>
+      </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
@@ -3468,100 +4267,104 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="178" customHeight="1">
+    <row r="40" spans="1:3" ht="177.95" customHeight="1">
       <c r="B40" s="11"/>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="A43" s="12" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
       <c r="B44" s="13" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="A47" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
       <c r="B48" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
-      <c r="B49" s="11"/>
+      <c r="B49" s="11" t="s">
+        <v>259</v>
+      </c>
       <c r="AA49" s="6" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="AB49" s="6" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="AC49" s="6" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="AD49" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
     </row>
     <row r="52" spans="1:30" ht="24" customHeight="1">
       <c r="A52" s="14" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
-      <c r="B53" s="11"/>
+      <c r="B53" s="11">
+        <v>8</v>
+      </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
     </row>
     <row r="56" spans="1:30" ht="24" customHeight="1">
       <c r="A56" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
@@ -3569,110 +4372,118 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:30" ht="178" customHeight="1">
-      <c r="B58" s="11"/>
+    <row r="58" spans="1:30" ht="177.95" customHeight="1">
+      <c r="B58" s="11" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="61" spans="1:30" ht="24" customHeight="1">
       <c r="A61" s="12" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="B62" s="13" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="A65" s="14" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
-      <c r="B66" s="11"/>
+      <c r="B66" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
       <c r="A69" s="14" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
-      <c r="B70" s="11"/>
+      <c r="B70" s="11">
+        <v>5</v>
+      </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
       <c r="A72" s="9" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="24" customHeight="1">
       <c r="A73" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
       <c r="B74" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
-      <c r="B75" s="11"/>
+      <c r="B75" s="11" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
       <c r="A78" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
@@ -3680,26 +4491,28 @@
         <v>53</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="178" customHeight="1">
-      <c r="B80" s="11"/>
+    <row r="80" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B80" s="11" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="24" customHeight="1">
       <c r="A83" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
@@ -3707,83 +4520,87 @@
         <v>53</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="178" customHeight="1">
+    <row r="85" spans="1:3" ht="177.95" customHeight="1">
       <c r="B85" s="11"/>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
       <c r="A88" s="12" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
       <c r="B89" s="13" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
       <c r="A92" s="14" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
-      <c r="B93" s="11"/>
+      <c r="B93" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
       <c r="A96" s="14" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
-      <c r="B97" s="11"/>
+      <c r="B97" s="11">
+        <v>3</v>
+      </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
       <c r="A100" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
@@ -3791,26 +4608,28 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="178" customHeight="1">
-      <c r="B102" s="11"/>
+    <row r="102" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B102" s="11" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
       <c r="A104" s="9" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="A105" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
@@ -3818,7 +4637,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="178" customHeight="1">
+    <row r="107" spans="1:3" ht="177.95" customHeight="1">
       <c r="B107" s="11"/>
     </row>
   </sheetData>
@@ -3862,8 +4681,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3877,42 +4696,44 @@
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="24" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>50</v>
@@ -3920,13 +4741,13 @@
     </row>
     <row r="9" spans="1:30" ht="24" customHeight="1">
       <c r="A9" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
@@ -3934,189 +4755,213 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+    <row r="11" spans="1:30" ht="177.95" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>297</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>299</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
-      <c r="B15" s="11"/>
+      <c r="B15" s="11" t="s">
+        <v>329</v>
+      </c>
       <c r="AA15" s="6" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" ht="24" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>303</v>
+        <v>332</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" ht="24" customHeight="1">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>305</v>
+        <v>334</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" ht="24" customHeight="1">
-      <c r="B19" s="11"/>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="24" customHeight="1">
+      <c r="B19" s="11" t="s">
+        <v>329</v>
+      </c>
       <c r="AA19" s="6" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33" ht="24" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>307</v>
+        <v>336</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" ht="24" customHeight="1">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>309</v>
+        <v>338</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33" ht="24" customHeight="1">
-      <c r="B23" s="11"/>
+        <v>339</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="24" customHeight="1">
+      <c r="B23" s="11" t="s">
+        <v>340</v>
+      </c>
       <c r="AA23" s="6" t="s">
-        <v>311</v>
+        <v>341</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:33" ht="24" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="26" spans="1:33" ht="24" customHeight="1">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="27" spans="1:33" ht="24" customHeight="1">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="B27" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:33" ht="24" customHeight="1">
-      <c r="B28" s="11"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" ht="24" customHeight="1">
+      <c r="B28" s="11" t="s">
+        <v>346</v>
+      </c>
       <c r="AA28" s="6" t="s">
-        <v>317</v>
+        <v>346</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>318</v>
+        <v>347</v>
       </c>
       <c r="AC28" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:33" ht="24" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="31" spans="1:33" ht="24" customHeight="1">
-      <c r="A31" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="32" spans="1:33" ht="24" customHeight="1">
-      <c r="B32" s="11"/>
-      <c r="AA32" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="AB32" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="AC32" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="AD32" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="AE32" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="AF32" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="AG32" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" ht="24" customHeight="1">
+      <c r="B29" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="AA29" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="AB29" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="AC29" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" ht="24" customHeight="1">
+      <c r="A31" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" ht="24" customHeight="1">
+      <c r="A32" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="33" spans="2:33" ht="24" customHeight="1">
+      <c r="B33" s="11"/>
+      <c r="AA33" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="AB33" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="AC33" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="AD33" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="AE33" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="AF33" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG33" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="5">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
       <formula1>AA15:AD15</formula1>
     </dataValidation>
@@ -4129,8 +4974,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
       <formula1>AA28:AC28</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
-      <formula1>AA32:AG32</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29">
+      <formula1>AA29:AC29</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
+      <formula1>AA33:AG33</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4138,8 +4986,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD187"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE187"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4153,42 +5001,44 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>329</v>
+        <v>358</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>330</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>331</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>332</v>
+        <v>361</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>333</v>
+        <v>362</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>334</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>50</v>
@@ -4196,13 +5046,13 @@
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
       <c r="A9" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>337</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -4210,175 +5060,185 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+    <row r="11" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>338</v>
+        <v>369</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>339</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>340</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>341</v>
+        <v>372</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>342</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>343</v>
+        <v>374</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>344</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
-      <c r="B19" s="11"/>
+      <c r="B19" s="11" t="s">
+        <v>376</v>
+      </c>
       <c r="AA19" s="6" t="s">
-        <v>345</v>
+        <v>377</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>346</v>
+        <v>378</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>347</v>
+        <v>379</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>348</v>
+        <v>380</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>349</v>
+        <v>381</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>350</v>
+        <v>382</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>351</v>
+        <v>383</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>352</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
-      <c r="B23" s="11"/>
+      <c r="B23" s="11" t="s">
+        <v>385</v>
+      </c>
       <c r="AA23" s="6" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>354</v>
+        <v>385</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>355</v>
+        <v>387</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>356</v>
+        <v>388</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>357</v>
+        <v>389</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>358</v>
+        <v>390</v>
       </c>
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
-      <c r="B27" s="11"/>
+      <c r="B27" s="11" t="s">
+        <v>391</v>
+      </c>
       <c r="AA27" s="6" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>362</v>
+        <v>394</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>363</v>
+        <v>395</v>
       </c>
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>364</v>
+        <v>396</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>365</v>
+        <v>397</v>
       </c>
     </row>
     <row r="31" spans="1:31" ht="24" customHeight="1">
-      <c r="B31" s="11"/>
+      <c r="B31" s="11" t="s">
+        <v>398</v>
+      </c>
       <c r="AA31" s="6" t="s">
-        <v>366</v>
+        <v>399</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>367</v>
+        <v>400</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>368</v>
+        <v>398</v>
       </c>
       <c r="AD31" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>369</v>
+        <v>401</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>370</v>
+        <v>402</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>371</v>
+        <v>403</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>372</v>
+        <v>404</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -4386,21 +5246,21 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>373</v>
+        <v>405</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>374</v>
+        <v>406</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>375</v>
+        <v>407</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>376</v>
+        <v>408</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
@@ -4408,26 +5268,28 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="178" customHeight="1">
-      <c r="B40" s="11"/>
+    <row r="40" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B40" s="11" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>377</v>
+        <v>410</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>378</v>
+        <v>411</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="A43" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>379</v>
+        <v>412</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>380</v>
+        <v>413</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
@@ -4435,39 +5297,41 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="178" customHeight="1">
-      <c r="B45" s="11"/>
+    <row r="45" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B45" s="11" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
       <c r="A48" s="12" t="s">
-        <v>381</v>
+        <v>415</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>382</v>
+        <v>416</v>
       </c>
     </row>
     <row r="49" spans="1:29" ht="24" customHeight="1">
       <c r="B49" s="13" t="s">
-        <v>383</v>
+        <v>417</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>384</v>
+        <v>418</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>385</v>
+        <v>419</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="24" customHeight="1">
       <c r="A52" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>386</v>
+        <v>420</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>387</v>
+        <v>421</v>
       </c>
     </row>
     <row r="53" spans="1:29" ht="24" customHeight="1">
@@ -4475,26 +5339,28 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:29" ht="178" customHeight="1">
-      <c r="B54" s="11"/>
+    <row r="54" spans="1:29" ht="177.95" customHeight="1">
+      <c r="B54" s="11" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="56" spans="1:29" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>388</v>
+        <v>423</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>389</v>
+        <v>424</v>
       </c>
     </row>
     <row r="57" spans="1:29" ht="24" customHeight="1">
       <c r="A57" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>390</v>
+        <v>425</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>391</v>
+        <v>426</v>
       </c>
     </row>
     <row r="58" spans="1:29" ht="24" customHeight="1">
@@ -4502,57 +5368,61 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:29" ht="178" customHeight="1">
-      <c r="B59" s="11"/>
+    <row r="59" spans="1:29" ht="177.95" customHeight="1">
+      <c r="B59" s="11" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="61" spans="1:29" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>392</v>
+        <v>428</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>393</v>
+        <v>429</v>
       </c>
     </row>
     <row r="62" spans="1:29" ht="24" customHeight="1">
       <c r="A62" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>394</v>
+        <v>430</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>395</v>
+        <v>431</v>
       </c>
     </row>
     <row r="63" spans="1:29" ht="24" customHeight="1">
-      <c r="B63" s="11"/>
+      <c r="B63" s="11" t="s">
+        <v>432</v>
+      </c>
       <c r="AA63" s="6" t="s">
-        <v>396</v>
+        <v>432</v>
       </c>
       <c r="AB63" s="6" t="s">
-        <v>397</v>
+        <v>433</v>
       </c>
       <c r="AC63" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>398</v>
+        <v>434</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>399</v>
+        <v>435</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
       <c r="A66" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>400</v>
+        <v>436</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>401</v>
+        <v>437</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
@@ -4560,26 +5430,28 @@
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="178" customHeight="1">
-      <c r="B68" s="11"/>
+    <row r="68" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B68" s="11" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>402</v>
+        <v>439</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>403</v>
+        <v>440</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
       <c r="A71" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>404</v>
+        <v>441</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>405</v>
+        <v>442</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
@@ -4587,130 +5459,138 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="178" customHeight="1">
-      <c r="B73" s="11"/>
+    <row r="73" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B73" s="11" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
       <c r="A76" s="12" t="s">
-        <v>406</v>
+        <v>444</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>407</v>
+        <v>445</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="B77" s="13" t="s">
-        <v>408</v>
+        <v>446</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="A79" s="9" t="s">
-        <v>409</v>
+        <v>447</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>410</v>
+        <v>448</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="24" customHeight="1">
       <c r="A80" s="14" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>411</v>
+        <v>449</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>412</v>
+        <v>450</v>
       </c>
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
-      <c r="B81" s="11"/>
+      <c r="B81" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="83" spans="1:30" ht="24" customHeight="1">
       <c r="A83" s="9" t="s">
-        <v>413</v>
+        <v>451</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>414</v>
+        <v>452</v>
       </c>
     </row>
     <row r="84" spans="1:30" ht="24" customHeight="1">
       <c r="A84" s="14" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>415</v>
+        <v>453</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>416</v>
+        <v>454</v>
       </c>
     </row>
     <row r="85" spans="1:30" ht="24" customHeight="1">
-      <c r="B85" s="11"/>
+      <c r="B85" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="1:30" ht="24" customHeight="1">
       <c r="A88" s="12" t="s">
-        <v>417</v>
+        <v>455</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>418</v>
+        <v>456</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
       <c r="B89" s="13" t="s">
-        <v>419</v>
+        <v>457</v>
       </c>
     </row>
     <row r="91" spans="1:30" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>420</v>
+        <v>458</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>421</v>
+        <v>459</v>
       </c>
     </row>
     <row r="92" spans="1:30" ht="24" customHeight="1">
       <c r="A92" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>422</v>
+        <v>460</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>423</v>
+        <v>461</v>
       </c>
     </row>
     <row r="93" spans="1:30" ht="24" customHeight="1">
-      <c r="B93" s="11"/>
+      <c r="B93" s="11" t="s">
+        <v>462</v>
+      </c>
       <c r="AA93" s="6" t="s">
-        <v>424</v>
+        <v>463</v>
       </c>
       <c r="AB93" s="6" t="s">
-        <v>425</v>
+        <v>464</v>
       </c>
       <c r="AC93" s="6" t="s">
-        <v>426</v>
+        <v>462</v>
       </c>
       <c r="AD93" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>427</v>
+        <v>465</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>428</v>
+        <v>466</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="24" customHeight="1">
       <c r="A96" s="14" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>429</v>
+        <v>467</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>430</v>
+        <v>468</v>
       </c>
     </row>
     <row r="97" spans="1:30" ht="24" customHeight="1">
@@ -4718,21 +5598,21 @@
     </row>
     <row r="99" spans="1:30" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>431</v>
+        <v>469</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
     </row>
     <row r="100" spans="1:30" ht="24" customHeight="1">
       <c r="A100" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>432</v>
+        <v>470</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>433</v>
+        <v>471</v>
       </c>
     </row>
     <row r="101" spans="1:30" ht="24" customHeight="1">
@@ -4740,73 +5620,77 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:30" ht="178" customHeight="1">
-      <c r="B102" s="11"/>
+    <row r="102" spans="1:30" ht="177.95" customHeight="1">
+      <c r="B102" s="11" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="105" spans="1:30" ht="24" customHeight="1">
       <c r="A105" s="12" t="s">
-        <v>434</v>
+        <v>473</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>435</v>
+        <v>474</v>
       </c>
     </row>
     <row r="106" spans="1:30" ht="24" customHeight="1">
       <c r="B106" s="13" t="s">
-        <v>436</v>
+        <v>475</v>
       </c>
     </row>
     <row r="108" spans="1:30" ht="24" customHeight="1">
       <c r="A108" s="9" t="s">
-        <v>437</v>
+        <v>476</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>421</v>
+        <v>459</v>
       </c>
     </row>
     <row r="109" spans="1:30" ht="24" customHeight="1">
       <c r="A109" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>438</v>
+        <v>477</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>439</v>
+        <v>478</v>
       </c>
     </row>
     <row r="110" spans="1:30" ht="24" customHeight="1">
-      <c r="B110" s="11"/>
+      <c r="B110" s="11" t="s">
+        <v>462</v>
+      </c>
       <c r="AA110" s="6" t="s">
-        <v>424</v>
+        <v>463</v>
       </c>
       <c r="AB110" s="6" t="s">
-        <v>425</v>
+        <v>464</v>
       </c>
       <c r="AC110" s="6" t="s">
-        <v>426</v>
+        <v>462</v>
       </c>
       <c r="AD110" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="112" spans="1:30" ht="24" customHeight="1">
       <c r="A112" s="9" t="s">
-        <v>440</v>
+        <v>479</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>428</v>
+        <v>466</v>
       </c>
     </row>
     <row r="113" spans="1:29" ht="24" customHeight="1">
       <c r="A113" s="14" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>429</v>
+        <v>467</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>441</v>
+        <v>480</v>
       </c>
     </row>
     <row r="114" spans="1:29" ht="24" customHeight="1">
@@ -4814,21 +5698,21 @@
     </row>
     <row r="116" spans="1:29" ht="24" customHeight="1">
       <c r="A116" s="9" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
     </row>
     <row r="117" spans="1:29" ht="24" customHeight="1">
       <c r="A117" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>432</v>
+        <v>470</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>443</v>
+        <v>482</v>
       </c>
     </row>
     <row r="118" spans="1:29" ht="24" customHeight="1">
@@ -4836,114 +5720,118 @@
         <v>53</v>
       </c>
     </row>
-    <row r="119" spans="1:29" ht="178" customHeight="1">
+    <row r="119" spans="1:29" ht="177.95" customHeight="1">
       <c r="B119" s="11"/>
     </row>
     <row r="122" spans="1:29" ht="24" customHeight="1">
       <c r="A122" s="12" t="s">
-        <v>444</v>
+        <v>483</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>445</v>
+        <v>484</v>
       </c>
     </row>
     <row r="123" spans="1:29" ht="24" customHeight="1">
       <c r="B123" s="13" t="s">
-        <v>446</v>
+        <v>485</v>
       </c>
     </row>
     <row r="125" spans="1:29" ht="24" customHeight="1">
       <c r="A125" s="9" t="s">
-        <v>447</v>
+        <v>486</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>448</v>
+        <v>487</v>
       </c>
     </row>
     <row r="126" spans="1:29" ht="24" customHeight="1">
       <c r="A126" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>449</v>
+        <v>488</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
     </row>
     <row r="127" spans="1:29" ht="24" customHeight="1">
-      <c r="B127" s="11"/>
+      <c r="B127" s="11" t="s">
+        <v>490</v>
+      </c>
       <c r="AA127" s="6" t="s">
-        <v>451</v>
+        <v>490</v>
       </c>
       <c r="AB127" s="6" t="s">
-        <v>452</v>
+        <v>491</v>
       </c>
       <c r="AC127" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="130" spans="1:29" ht="24" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>453</v>
+        <v>492</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>454</v>
+        <v>493</v>
       </c>
     </row>
     <row r="131" spans="1:29" ht="24" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>455</v>
+        <v>494</v>
       </c>
     </row>
     <row r="133" spans="1:29" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>456</v>
+        <v>495</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>448</v>
+        <v>487</v>
       </c>
     </row>
     <row r="134" spans="1:29" ht="24" customHeight="1">
       <c r="A134" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>457</v>
+        <v>496</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>458</v>
+        <v>497</v>
       </c>
     </row>
     <row r="135" spans="1:29" ht="24" customHeight="1">
-      <c r="B135" s="11"/>
+      <c r="B135" s="11" t="s">
+        <v>498</v>
+      </c>
       <c r="AA135" s="6" t="s">
-        <v>451</v>
+        <v>490</v>
       </c>
       <c r="AB135" s="6" t="s">
-        <v>459</v>
+        <v>498</v>
       </c>
       <c r="AC135" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="137" spans="1:29" ht="24" customHeight="1">
       <c r="A137" s="9" t="s">
-        <v>460</v>
+        <v>499</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
     </row>
     <row r="138" spans="1:29" ht="24" customHeight="1">
       <c r="A138" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>461</v>
+        <v>500</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>462</v>
+        <v>501</v>
       </c>
     </row>
     <row r="139" spans="1:29" ht="24" customHeight="1">
@@ -4951,166 +5839,176 @@
         <v>53</v>
       </c>
     </row>
-    <row r="140" spans="1:29" ht="178" customHeight="1">
-      <c r="B140" s="11"/>
+    <row r="140" spans="1:29" ht="177.95" customHeight="1">
+      <c r="B140" s="11" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="143" spans="1:29" ht="24" customHeight="1">
       <c r="A143" s="12" t="s">
-        <v>463</v>
+        <v>503</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>464</v>
+        <v>504</v>
       </c>
     </row>
     <row r="144" spans="1:29" ht="24" customHeight="1">
       <c r="B144" s="13" t="s">
-        <v>465</v>
+        <v>505</v>
       </c>
     </row>
     <row r="146" spans="1:30" ht="24" customHeight="1">
       <c r="A146" s="9" t="s">
-        <v>466</v>
+        <v>506</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>467</v>
+        <v>507</v>
       </c>
     </row>
     <row r="147" spans="1:30" ht="24" customHeight="1">
       <c r="A147" s="14" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>468</v>
+        <v>508</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>469</v>
+        <v>509</v>
       </c>
     </row>
     <row r="148" spans="1:30" ht="24" customHeight="1">
-      <c r="B148" s="11"/>
+      <c r="B148" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="150" spans="1:30" ht="24" customHeight="1">
       <c r="A150" s="9" t="s">
-        <v>470</v>
+        <v>510</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>471</v>
+        <v>511</v>
       </c>
     </row>
     <row r="151" spans="1:30" ht="24" customHeight="1">
       <c r="A151" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>472</v>
+        <v>512</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>473</v>
+        <v>513</v>
       </c>
     </row>
     <row r="152" spans="1:30" ht="24" customHeight="1">
-      <c r="B152" s="11"/>
+      <c r="B152" s="11" t="s">
+        <v>514</v>
+      </c>
       <c r="AA152" s="6" t="s">
-        <v>474</v>
+        <v>515</v>
       </c>
       <c r="AB152" s="6" t="s">
-        <v>475</v>
+        <v>514</v>
       </c>
       <c r="AC152" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="154" spans="1:30" ht="24" customHeight="1">
       <c r="A154" s="9" t="s">
-        <v>476</v>
+        <v>516</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>477</v>
+        <v>517</v>
       </c>
     </row>
     <row r="155" spans="1:30" ht="24" customHeight="1">
       <c r="A155" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>478</v>
+        <v>518</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>479</v>
+        <v>519</v>
       </c>
     </row>
     <row r="156" spans="1:30" ht="24" customHeight="1">
       <c r="B156" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="157" spans="1:30" ht="24" customHeight="1">
-      <c r="B157" s="11"/>
+      <c r="B157" s="11" t="s">
+        <v>520</v>
+      </c>
       <c r="AA157" s="6" t="s">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="AB157" s="6" t="s">
-        <v>481</v>
+        <v>521</v>
       </c>
       <c r="AC157" s="6" t="s">
-        <v>482</v>
+        <v>522</v>
       </c>
       <c r="AD157" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="160" spans="1:30" ht="24" customHeight="1">
       <c r="A160" s="12" t="s">
-        <v>483</v>
+        <v>523</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>484</v>
+        <v>524</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="24" customHeight="1">
       <c r="B161" s="13" t="s">
-        <v>485</v>
+        <v>525</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="24" customHeight="1">
       <c r="A163" s="9" t="s">
-        <v>486</v>
+        <v>526</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>487</v>
+        <v>527</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="24" customHeight="1">
       <c r="A164" s="14" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>488</v>
+        <v>528</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>489</v>
+        <v>529</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
-      <c r="B165" s="11"/>
+      <c r="B165" s="11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="167" spans="1:3" ht="24" customHeight="1">
       <c r="A167" s="9" t="s">
-        <v>490</v>
+        <v>530</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>491</v>
+        <v>531</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="24" customHeight="1">
       <c r="A168" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>492</v>
+        <v>532</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>493</v>
+        <v>533</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="24" customHeight="1">
@@ -5118,48 +6016,50 @@
         <v>53</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="178" customHeight="1">
+    <row r="170" spans="1:3" ht="177.95" customHeight="1">
       <c r="B170" s="11"/>
     </row>
     <row r="172" spans="1:3" ht="24" customHeight="1">
       <c r="A172" s="9" t="s">
-        <v>494</v>
+        <v>534</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>495</v>
+        <v>535</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="24" customHeight="1">
       <c r="A173" s="14" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>496</v>
+        <v>536</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>497</v>
+        <v>537</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="24" customHeight="1">
-      <c r="B174" s="11"/>
+      <c r="B174" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="176" spans="1:3" ht="24" customHeight="1">
       <c r="A176" s="9" t="s">
-        <v>498</v>
+        <v>538</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>499</v>
+        <v>539</v>
       </c>
     </row>
     <row r="177" spans="1:29" ht="24" customHeight="1">
       <c r="A177" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>501</v>
+        <v>541</v>
       </c>
     </row>
     <row r="178" spans="1:29" ht="24" customHeight="1">
@@ -5167,60 +6067,64 @@
         <v>53</v>
       </c>
     </row>
-    <row r="179" spans="1:29" ht="178" customHeight="1">
-      <c r="B179" s="11"/>
+    <row r="179" spans="1:29" ht="177.95" customHeight="1">
+      <c r="B179" s="11" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="181" spans="1:29" ht="24" customHeight="1">
       <c r="A181" s="9" t="s">
-        <v>502</v>
+        <v>543</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>314</v>
+        <v>343</v>
       </c>
     </row>
     <row r="182" spans="1:29" ht="24" customHeight="1">
       <c r="A182" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>503</v>
+        <v>544</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>504</v>
+        <v>545</v>
       </c>
     </row>
     <row r="183" spans="1:29" ht="24" customHeight="1">
-      <c r="B183" s="11"/>
+      <c r="B183" s="11" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="185" spans="1:29" ht="24" customHeight="1">
       <c r="A185" s="9" t="s">
-        <v>505</v>
+        <v>547</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>356</v>
+        <v>388</v>
       </c>
     </row>
     <row r="186" spans="1:29" ht="24" customHeight="1">
       <c r="A186" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>506</v>
+        <v>548</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>507</v>
+        <v>549</v>
       </c>
     </row>
     <row r="187" spans="1:29" ht="24" customHeight="1">
       <c r="B187" s="11"/>
       <c r="AA187" s="6" t="s">
-        <v>508</v>
+        <v>550</v>
       </c>
       <c r="AB187" s="6" t="s">
-        <v>509</v>
+        <v>551</v>
       </c>
       <c r="AC187" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -5238,8 +6142,8 @@
       <formula1>AA31:AD31</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
       <formula1>AA63:AC63</formula1>
@@ -5254,15 +6158,15 @@
       <formula1>AA93:AD93</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B110">
       <formula1>AA110:AD110</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B114">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B127">
       <formula1>AA127:AC127</formula1>
@@ -5294,8 +6198,8 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5309,42 +6213,44 @@
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>510</v>
+        <v>552</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>511</v>
+        <v>553</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>512</v>
+        <v>554</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>513</v>
+        <v>555</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="24" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>514</v>
+        <v>556</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>515</v>
+        <v>557</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>516</v>
+        <v>559</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>50</v>
@@ -5352,13 +6258,13 @@
     </row>
     <row r="9" spans="1:30" ht="24" customHeight="1">
       <c r="A9" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>517</v>
+        <v>560</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>518</v>
+        <v>561</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
@@ -5366,80 +6272,84 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+    <row r="11" spans="1:30" ht="177.95" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>519</v>
+        <v>563</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>520</v>
+        <v>564</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>521</v>
+        <v>565</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>522</v>
+        <v>566</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
-      <c r="B15" s="11"/>
+      <c r="B15" s="11" t="s">
+        <v>567</v>
+      </c>
       <c r="AA15" s="6" t="s">
-        <v>523</v>
+        <v>567</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>524</v>
+        <v>568</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>525</v>
+        <v>569</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>526</v>
+        <v>570</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>527</v>
+        <v>571</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>528</v>
+        <v>572</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>529</v>
+        <v>573</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="24" customHeight="1">
       <c r="B20" s="11"/>
       <c r="AA20" s="6" t="s">
-        <v>523</v>
+        <v>567</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>530</v>
+        <v>574</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>531</v>
+        <v>575</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/cmip6/models/access-cm2/cmip6_csiro-arccss-bom_access-cm2_seaice.xlsx
+++ b/cmip6/models/access-cm2/cmip6_csiro-arccss-bom_access-cm2_seaice.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22108"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dob04h\Documents\access\es-doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mac570\OneDrive - CSIRO\ES-DOC\CM2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="137" documentId="11_F3E82DF6F6E2573172E9487AAD2F8160377A6E7C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1C6ED83D-66EB-4E6A-AC26-FEFD4BBFBE3B}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="17640" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -20,12 +21,20 @@
     <sheet name="4. Thermodynamics" sheetId="6" r:id="rId6"/>
     <sheet name="5. Radiative Processes" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="587">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -39,9 +48,15 @@
     <t>Institute</t>
   </si>
   <si>
+    <t>CSIRO-ARCCSS-BOM</t>
+  </si>
+  <si>
     <t>Model</t>
   </si>
   <si>
+    <t>ACCESS-CM2</t>
+  </si>
+  <si>
     <t>Realm / Topic</t>
   </si>
   <si>
@@ -117,6 +132,18 @@
     <t>Role</t>
   </si>
   <si>
+    <t>Sullivan,A</t>
+  </si>
+  <si>
+    <t>Principal Investigator</t>
+  </si>
+  <si>
+    <t>Ofarrell,S</t>
+  </si>
+  <si>
+    <t>Contributor</t>
+  </si>
+  <si>
     <t>Citations</t>
   </si>
   <si>
@@ -129,6 +156,39 @@
     <t>Process</t>
   </si>
   <si>
+    <t>seaice_1</t>
+  </si>
+  <si>
+    <t>Top Level</t>
+  </si>
+  <si>
+    <t>seaice_2</t>
+  </si>
+  <si>
+    <t>seaice_3</t>
+  </si>
+  <si>
+    <t>seaice_4</t>
+  </si>
+  <si>
+    <t>seaice_5</t>
+  </si>
+  <si>
+    <t>seaice_6</t>
+  </si>
+  <si>
+    <t>seaice_7</t>
+  </si>
+  <si>
+    <t>seaice_8</t>
+  </si>
+  <si>
+    <t>seaice_9</t>
+  </si>
+  <si>
+    <t>seaice_10</t>
+  </si>
+  <si>
     <t>1.1.1</t>
   </si>
   <si>
@@ -190,7 +250,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-The Los Alamos sea ice model (CICE) (Hunke_2015) has several interacting components: a thermodynamic model that computes local growth/melt rates of snow and ice due to vertical conductive, radiative and turbulent fluxes, along with snowfall; a model of ice dynamics, which predicts the velocity field of the ice pack based on a model of the material strength of the ice; a transport model that describes advection of the areal concentration, ice volumes and other state variables; and a ridging parameterization that transfers ice among thickness categories based on growth rates, energetic balances and rates of strain. External routines would prepare and execute data exchanges with an external “flux coupler,” which then passes the data to other climate model components such as POP.</t>
+The Los Alamos sea ice model (CICE) (Hunke, 2015) has several interacting components: a thermodynamic model that computes local growth/melt rates of snow and ice due to vertical conductive, radiative and turbulent fluxes, along with snowfall; a model of ice dynamics, which predicts the velocity field of the ice pack based on a model of the material strength of the ice; a transport model that describes advection of the areal concentration, ice volumes and other state variables; and a ridging parameterization that transfers ice among thickness categories based on growth rates, energetic balances and rates of strain. External routines prepare and execute data exchanges through a coupler (OASIS-MCT) with the atmospheric model (UM) and the ocean model (MOM). The CICE model acts as a coupling medium between the atmosphere and ocean models (Bi et al, 2013).</t>
   </si>
   <si>
     <t>1.2.1</t>
@@ -259,18 +319,9 @@
     <t>Other: Snow enthalpy</t>
   </si>
   <si>
-    <t>Other: Surface temperature</t>
-  </si>
-  <si>
     <t>Other: Melt pond fraction</t>
   </si>
   <si>
-    <t>Other: Black carbon concentration</t>
-  </si>
-  <si>
-    <t>Other: Dust concentration</t>
-  </si>
-  <si>
     <t>1.3.1</t>
   </si>
   <si>
@@ -292,7 +343,7 @@
     <t>cmip6.seaice.key_properties.seawater_properties.ocean_freezing_point</t>
   </si>
   <si>
-    <t>Other: Assur_1958</t>
+    <t>Linear function of salinity</t>
   </si>
   <si>
     <t>TEOS-10: Thermodynamic equation of seawater 2010.</t>
@@ -334,7 +385,7 @@
     <t>cmip6.seaice.key_properties.resolution.name</t>
   </si>
   <si>
-    <t>gx1v7</t>
+    <t>ACCESS grid</t>
   </si>
   <si>
     <t>1.4.1.2 *</t>
@@ -393,7 +444,7 @@
     <t>cmip6.seaice.key_properties.tuning_applied.description</t>
   </si>
   <si>
-    <t xml:space="preserve">The CICE tuning is primarily achieved by adjusting the snow grain radius, which impacts the surface albedo through the radiative transfer calculation. The base value for dry snow (rsnw_nonmelt) is 500 microns, and a predefined standard deviation (rsnw_std) of 250 microns from observations is used for tuning in the following: rsnw = rsnw_nonmelt - r_snw*rsnw_std, where r_snw is adjusted for tuning and by default in our simulations is 1.25. Hence, the starting dry snow grain radius is 500-1.25*250 = 187.5 microns. Once melting starts (determined by dt_mlt), the snow grain radius grows linearly until it achieves a maximum snow grain radius at 0C. Currently, melting begins at dt_mlt = -1.5C and the maximum snow grain radius (rsnw_mlt) is 1500 microns. Tuning of the r_snw value and also sometimes dt_mlt and the maximum snow grain radius value is used to adjust the surface albedo. This is typically done to reach a reasonable sea ice thickness and summer snow cover in pre-industrial control simulations, where "reasonable" is based on expert judgement. </t>
+    <t>There were tuning attempts on albedo and snow conductivity on a parallel simulation but these were not adopted by the main model spin-up as the ice got to thin over a very long &gt; 500 year run.</t>
   </si>
   <si>
     <t>1.5.1.2 *</t>
@@ -408,9 +459,6 @@
     <t>cmip6.seaice.key_properties.tuning_applied.target</t>
   </si>
   <si>
-    <t>The aim is to get the best mean thickness and seasonal cycle in both hemispheres in pre-industrial control simulations.</t>
-  </si>
-  <si>
     <t>1.5.1.3 *</t>
   </si>
   <si>
@@ -423,7 +471,7 @@
     <t>cmip6.seaice.key_properties.tuning_applied.simulations</t>
   </si>
   <si>
-    <t>Only the pi-control was tuned. These were the same parameters then used for all subsequent runs.</t>
+    <t>Only a parallel run with a different land surface scheme was the sea ice model tuned, the main CMIP6 model submission does not have the tunings standard CICE settings have been used.</t>
   </si>
   <si>
     <t>1.5.1.4 *</t>
@@ -438,7 +486,7 @@
     <t>cmip6.seaice.key_properties.tuning_applied.metrics_used</t>
   </si>
   <si>
-    <t xml:space="preserve">We look at the IceSat sea ice thickness in the Arctic, PIOMAS thickness estimates, and the mean NSIDC ice extent from 1979 to the present. </t>
+    <t xml:space="preserve">We look at the IceSat sea ice thickness in the Arctic, PIOMAS thickness estimates, and the mean NSIDC ice extent from 1979 to the present day. </t>
   </si>
   <si>
     <t xml:space="preserve">1.5.1.5 </t>
@@ -451,9 +499,6 @@
   </si>
   <si>
     <t>cmip6.seaice.key_properties.tuning_applied.variables</t>
-  </si>
-  <si>
-    <t>r_snw, dt_mlt, rsnw_melt</t>
   </si>
   <si>
     <t>1.6.1</t>
@@ -515,7 +560,7 @@
     <t>cmip6.seaice.key_properties.key_parameter_values.additional_parameters</t>
   </si>
   <si>
-    <t xml:space="preserve">emissivity = 0.95, dragio = 0.00536, iceruf = 0.0005 m, hs_min = 1.0e-4 m, rhos = 300 kg/m3, Cf = 17, rhoi = 917 kg/m3 </t>
+    <t xml:space="preserve">emissivity = 0.95, dragio = 0.00536, iceruf = 0.0005 m, hs_min = 0.1 m, rhos = 330 kg/m3, Cf = 17, rhoi = 917 kg/m3 </t>
   </si>
   <si>
     <t>1.7.1</t>
@@ -551,7 +596,7 @@
     <t>cmip6.seaice.key_properties.assumptions.on_diagnostic_variables</t>
   </si>
   <si>
-    <t>The flux exchange of salt and water with the ocean component assumes a constant sea ice salinity of 4 psu and an ocean reference salinity of 34.7. The prognostic salinity in the thermodynamics is only used internally for the thermal properties of the ice. Melt pond fraction/depth and snow fraction only impact the albedo and shortwave calculation. These are not in the SIMIP variables.</t>
+    <t>The flux exchange of salt and water with the ocean component assumes a constant sea ice salinity of 5 psu and an ocean reference salinity of 34.7. The salinity in the thermodynamics is only used internally for the thermal properties of the ice. Melt pond fraction/depth and snow fraction impact the surface albedo.</t>
   </si>
   <si>
     <t>1.7.1.3 *</t>
@@ -626,7 +671,7 @@
     <t>cmip6.seaice.key_properties.conservation.budget</t>
   </si>
   <si>
-    <t>Energy, siflsenstop, siflswdtop, siflswutop, siflswdbot, sifllwdtop, sifllwutop, siflsensupbot, sisnhc, sihc : Fresh Water,   sidmassevapsubl, sidmassgrowthbot, sidmassgrowthwat, sidmasslat, sidmassmeltbot, sidmassmelttop, sidmasssi, siflfwbot, sipr, … : Salt, sidmassgrowthbot, sidmassgrowthwat, sidmasslat, sidmassmeltbot, sidmassmelttop, sidmasssi, siflsaltbot ... Note that to balance with changes in sea ice and snow thickness, these are monthly mean values and the changes must be estimated from these. For more on the SIMIP variable request and the budgets see Notz_2016.</t>
+    <t>Energy, siflsenstop, siflswdtop, siflswutop, siflswdbot, sifllwdtop, sifllwutop, siflsensupbot, sisnhc, sihc : Fresh Water,   sidmassevapsubl, sidmassgrowthbot, sidmassgrowthwat, sidmasslat, sidmassmeltbot, sidmassmelttop, sidmasssi, siflfwbot, sipr, … : Salt, sidmassgrowthbot, sidmassgrowthwat, sidmasslat, sidmassmeltbot, sidmassmelttop, sidmasssi, siflsaltbot ... Note that to balance with changes in sea ice and snow thickness, these are monthly mean values and the changes must be estimated from these.  Note the Heat flux terms (short wave, long wave, sensible and latent heat) are part of the thermodynamic calculation which is done in the atmospheric code, see section 4.</t>
   </si>
   <si>
     <t>1.8.1.4 *</t>
@@ -684,7 +729,7 @@
     <t>cmip6.seaice.grid.overview</t>
   </si>
   <si>
-    <t>Greenland dipolar grid with equatorial meridional refinement.</t>
+    <t>Tripolar arctic grid, equatorial grid with exra refinement, Southern Ocean and Antarctic Mercator grid. Bi et al 2013</t>
   </si>
   <si>
     <t>2.1.2</t>
@@ -726,9 +771,6 @@
     <t>cmip6.seaice.grid.discretisation.horizontal.grid_type</t>
   </si>
   <si>
-    <t>Rotated north pole</t>
-  </si>
-  <si>
     <t>Structured grid</t>
   </si>
   <si>
@@ -846,9 +888,6 @@
     <t>cmip6.seaice.grid.discretisation.vertical.additional_details</t>
   </si>
   <si>
-    <t>We use an extra surface scattering layer in the radiation. Black carbon and dust are distributed vertically within the surface scattering layer and a single interior layer for both ice and snow.</t>
-  </si>
-  <si>
     <t>2.2.1</t>
   </si>
   <si>
@@ -894,7 +933,7 @@
     <t>cmip6.seaice.grid.seaice_categories.category_limits</t>
   </si>
   <si>
-    <t>0, 0.6445, 1.3914, 2.4702, 4.5673, 9.338m*</t>
+    <t>0, 0.6, 1.4, 2.4, 3.6, unlimited</t>
   </si>
   <si>
     <t>2.2.1.4 *</t>
@@ -909,7 +948,7 @@
     <t>cmip6.seaice.grid.seaice_categories.ice_thickness_distribution</t>
   </si>
   <si>
-    <t>The sea ice thickness distribution is described in Bitz_2001 and Lipscomb_2007. We use an exponential formulation as in Lipscomb_2007. *Note that the 5th category upper bound is not used to limit the sea ice thickness.</t>
+    <t>The sea ice thickness distribution is described in Bitz_2001 and Lipscomb_2007.</t>
   </si>
   <si>
     <t xml:space="preserve">2.2.1.5 </t>
@@ -972,7 +1011,7 @@
     <t>cmip6.seaice.grid.snow_on_seaice.snow_fraction</t>
   </si>
   <si>
-    <t>The snow fraction is a function of the snow depth and is only used in the shortwave radiation code.</t>
+    <t>The snow fraction is a function of the snow depth and in the radiation code is also a function of the snow patchiness. In the meltpond code it the snow fraction is initialized as an exponential function of the snow depth and adjusted during the meltpond process. It is this latter derivation of the snow fractional cover that is saved in the ice history files.</t>
   </si>
   <si>
     <t xml:space="preserve">2.3.1.4 </t>
@@ -1098,6 +1137,9 @@
     <t>cmip6.seaice.dynamics.rheology</t>
   </si>
   <si>
+    <t>Elastic-visco-plastic: EVP</t>
+  </si>
+  <si>
     <t>Free-drift</t>
   </si>
   <si>
@@ -1107,9 +1149,6 @@
     <t>Visco-plastic: VP</t>
   </si>
   <si>
-    <t>Elastic-visco-plastic: EVP</t>
-  </si>
-  <si>
     <t>Elastic-anisotropic-plastic</t>
   </si>
   <si>
@@ -1134,7 +1173,7 @@
     <t>cmip6.seaice.thermodynamics.name</t>
   </si>
   <si>
-    <t>Mushy-Layer, Turner_2015</t>
+    <t>Bitz and Lipscomb, 1999</t>
   </si>
   <si>
     <t xml:space="preserve">4.1.1.2 </t>
@@ -1146,7 +1185,7 @@
     <t>cmip6.seaice.thermodynamics.overview</t>
   </si>
   <si>
-    <t>Vertical thermodynamics includes bulk salinity as a prognostic variable. More information is available in Turner_2015.</t>
+    <t>Vertical thermodynamics in the ice interior includes a fixed salinity profile, more details are provided in Bitz and Lipscomb 1999 and Hunke 2015. The surface snow/ice temperature is calculated in the atmospheric model (UM) in the surface scheme (JULES) (West et al 2016) the ice model passes an effective conductivity of either the snow or top ice layer to the UM for the surface scheme to use in its heat flux calcualtions to derive the surface temperature of ice or snow cover (if present).</t>
   </si>
   <si>
     <t>4.2.1</t>
@@ -1170,7 +1209,7 @@
     <t>cmip6.seaice.thermodynamics.energy.enthalpy_formulation</t>
   </si>
   <si>
-    <t>Other: Mushy layer formulation - Pure ice latent and sensible heat and brine enthalpy with a time evolving liquid fraction</t>
+    <t>Pure ice latent and sensible heat + explicit brine inclusions (Bitz and Lipscomb)</t>
   </si>
   <si>
     <t>Pure ice latent heat (Semtner 0-layer)</t>
@@ -1182,9 +1221,6 @@
     <t>Pure ice latent and sensible heat + brine heat reservoir (Semtner 3-layer)</t>
   </si>
   <si>
-    <t>Pure ice latent and sensible heat + explicit brine inclusions (Bitz and Lipscomb)</t>
-  </si>
-  <si>
     <t>4.2.1.2 *</t>
   </si>
   <si>
@@ -1236,13 +1272,13 @@
     <t>cmip6.seaice.thermodynamics.energy.basal_heat_flux</t>
   </si>
   <si>
+    <t>Thermal Fixed Salinity: Thermal properties depend on S-T (with fixed salinity).</t>
+  </si>
+  <si>
+    <t>Heat Reservoir: Brine inclusions treated as a heat reservoir.</t>
+  </si>
+  <si>
     <t>Thermal Varying Salinity: Thermal properties depend on S-T (with varying salinity.</t>
-  </si>
-  <si>
-    <t>Heat Reservoir: Brine inclusions treated as a heat reservoir.</t>
-  </si>
-  <si>
-    <t>Thermal Fixed Salinity: Thermal properties depend on S-T (with fixed salinity).</t>
   </si>
   <si>
     <t xml:space="preserve">4.2.1.5 </t>
@@ -1258,6 +1294,9 @@
     <t>cmip6.seaice.thermodynamics.energy.fixed_salinity_value</t>
   </si>
   <si>
+    <t>1.9,7.2,9.2,10</t>
+  </si>
+  <si>
     <t>4.2.1.6 *</t>
   </si>
   <si>
@@ -1310,7 +1349,7 @@
     <t>cmip6.seaice.thermodynamics.mass.new_ice_formation</t>
   </si>
   <si>
-    <t>Frazil ice is formed in the ocean when the temperature drops below the salinity-dependent freezing point. This implied heat flux is given to the sea ice model and it must form this amount of ice. The mushy-layer thermodynamics (Turner_2015) takes up both solid ice and salt water. This additional salt water taken up by the sea ice is sent back to the ocean as a part of the fresh water and salt fluxes.</t>
+    <t>Frazil ice is formed in the ocean when the temperature drops below the salinity-dependent freezing point. This implied heat flux is given to the sea ice model and it must form this amount of ice.   Salt water rejected by the sea ice is sent back to the ocean as a part of the salt fluxes.</t>
   </si>
   <si>
     <t>4.3.1.2 *</t>
@@ -1373,7 +1412,7 @@
     <t>cmip6.seaice.thermodynamics.mass.frazil_ice</t>
   </si>
   <si>
-    <t>Frazil ice is formed in the ocean when the temperature drops below the salinity-dependent freezing point. This implied heat flux is given to the sea ice model and it must form this amount of ice. The mushy-layer thermodynamics (Turner_2015) takes up solid ice and salt water. This additional salt water taken up by the sea ice is sent back to the ocean as a part of the fresh water and salt fluxes.</t>
+    <t xml:space="preserve">Frazil ice is formed in the ocean when the temperature drops below the salinity-dependent freezing point. This implied heat flux is given to the sea ice model and it must form this amount of ice. </t>
   </si>
   <si>
     <t>4.4.1</t>
@@ -1431,15 +1470,15 @@
     <t>cmip6.seaice.thermodynamics.salt.mass_transport.salinity_type</t>
   </si>
   <si>
+    <t>Prescribed salinity profile</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
     <t>Prognostic salinity profile</t>
   </si>
   <si>
-    <t>Constant</t>
-  </si>
-  <si>
-    <t>Prescribed salinity profile</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.4.2.2 </t>
   </si>
   <si>
@@ -1461,7 +1500,7 @@
     <t>cmip6.seaice.thermodynamics.salt.mass_transport.additional_details</t>
   </si>
   <si>
-    <t>The salinity is computed prognostically as in Turner_2015.</t>
+    <t>The salinity profile is S=1/2*Smax*cos(pi*z**(n/(m+z)) where z= k-(1/2) is the level in the ice, Smax=3.2, m and n are constants m= 0.573, n=0.407.</t>
   </si>
   <si>
     <t>4.4.3</t>
@@ -1494,6 +1533,9 @@
     <t>cmip6.seaice.thermodynamics.salt.thermodynamics.additional_details</t>
   </si>
   <si>
+    <t>The salinity profile is S=1/2*Smax*cos(pi*z**(n/(m+z))   where z= k-(1/2) is the level in the ice, Smax=3.2, m and n are constants m= 0.573, n=0.407.</t>
+  </si>
+  <si>
     <t>4.5.1</t>
   </si>
   <si>
@@ -1587,12 +1629,12 @@
     <t>cmip6.seaice.thermodynamics.melt_ponds.formulation</t>
   </si>
   <si>
+    <t>Flocco and Feltham (2010)</t>
+  </si>
+  <si>
     <t>Level-ice melt ponds</t>
   </si>
   <si>
-    <t>Flocco and Feltham (2010)</t>
-  </si>
-  <si>
     <t>4.7.1.3 *</t>
   </si>
   <si>
@@ -1671,7 +1713,7 @@
     <t>cmip6.seaice.thermodynamics.snow_processes.snow_ice_formation_scheme</t>
   </si>
   <si>
-    <t>Snow ice is formed in the Turner_2015 thermodynamics.</t>
+    <t>Snow ice is formed in the Bitz and Lipscomb 1999 thermodynamics.</t>
   </si>
   <si>
     <t>4.8.1.5 *</t>
@@ -1719,7 +1761,7 @@
     <t>cmip6.seaice.radiative_processes.name</t>
   </si>
   <si>
-    <t>delta-Eddington shortwave</t>
+    <t>CCSM3 scheme (Hunke 2015)</t>
   </si>
   <si>
     <t xml:space="preserve">5.1.1.2 </t>
@@ -1731,7 +1773,7 @@
     <t>cmip6.seaice.radiative_processes.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">As describe in Briegleb_2007, the Delta-Eddington model is a multiple scattering radiative transfer model that treats the interactions between solar radiation and snow and sea ice. Optical properties for snow and sea ice are prescribed based on physical measurements. Effects of absorption due to black carbon and dust, which are prognostic variables, are included (Holland_2012). </t>
+    <t>In the CCSM3 scheme the albedo depends on the temperature and thickness of ice and snow and on the spectral distribution of the incoming solar radiation. Above -1C and below a cut off bare ice thickness (0.3m) the albedos will decrease linearly. The albedo effect of meltponds is included using the Flocco et al (2010) scheme.  All the albedo changes are implemented in the UM JULES code where the relevant parts of CICE albedo scheme have been duplicated.</t>
   </si>
   <si>
     <t>5.1.1.3 *</t>
@@ -1746,15 +1788,15 @@
     <t>cmip6.seaice.radiative_processes.surface_albedo</t>
   </si>
   <si>
+    <t>Multi-band albedo: Albedo value has a spectral dependence.</t>
+  </si>
+  <si>
     <t>Delta-Eddington</t>
   </si>
   <si>
     <t>Parameterized: Sea ice albedo is parameterized.</t>
   </si>
   <si>
-    <t>Multi-band albedo: Albedo value has a spectral dependence.</t>
-  </si>
-  <si>
     <t>5.1.1.4 *</t>
   </si>
   <si>
@@ -1771,19 +1813,13 @@
   </si>
   <si>
     <t>Ice radiation transmission per category: Radiation transmission through ice is different for each sea ice category.</t>
-  </si>
-  <si>
-    <t>CSIRO-ARCCSS-BOM</t>
-  </si>
-  <si>
-    <t>ACCESS-CM2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1884,6 +1920,22 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1929,7 +1981,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1971,6 +2023,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2066,6 +2127,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2101,6 +2179,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2276,10 +2371,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -2308,111 +2403,113 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>576</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20.25">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>577</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="20.25">
       <c r="A6" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="20.25">
       <c r="A8" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20.25">
       <c r="B9" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="20.25">
       <c r="B10" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="20.25">
       <c r="B11" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="20.25">
       <c r="B12" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="18">
       <c r="A14" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18">
       <c r="A15" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="18">
       <c r="A16" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18">
       <c r="A17" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="20.25">
       <c r="A19" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19" s="4"/>
     </row>
     <row r="20" spans="1:2" ht="20.25">
       <c r="A20" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1"/>
-    <hyperlink ref="B15" r:id="rId2"/>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B15" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2423,93 +2520,183 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30">
       <c r="A1" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B1" s="7"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18">
       <c r="A5" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B5" s="9"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75">
       <c r="A8" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-    </row>
-    <row r="12" spans="1:2" ht="18">
-      <c r="A12" s="9" t="s">
+      <c r="A9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="18">
+      <c r="A10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="18">
+      <c r="A13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="9"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75">
+      <c r="A17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="9"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75">
-      <c r="A16" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="18">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
+      <c r="B17" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="18">
+      <c r="A18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="18">
+      <c r="A19" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="18">
+      <c r="A20" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="18">
+      <c r="A21" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="18">
+      <c r="A22" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="18">
+      <c r="A23" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="18">
+      <c r="A24" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="18">
+      <c r="A25" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="18">
+      <c r="A26" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="18">
+      <c r="A27" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B10" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B27" xr:uid="{FC160E25-8D22-495E-9A3D-4D4938DC9862}">
       <formula1>"Top Level,Key Properties,Grid,Dynamics,Thermodynamics,Radiative Processes"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1"/>
-    <hyperlink ref="A13" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A14" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL165"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AL161"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="B151" sqref="B151"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2521,1473 +2708,1251 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
       <c r="A9" s="14" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="177.95" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:38" ht="24" customHeight="1">
       <c r="A19" s="12" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:38" ht="24" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:38" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:38" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:38" ht="24" customHeight="1">
       <c r="B24" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:38" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="AE25" s="6" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="AF25" s="6" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="AG25" s="6" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="AH25" s="6" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="AI25" s="6" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="AJ25" s="6" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="AK25" s="6" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AL25" s="6" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:38" ht="24" customHeight="1">
       <c r="B26" s="11" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="AA26" s="6" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="AB26" s="6" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="AC26" s="6" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="AD26" s="6" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="AE26" s="6" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="AF26" s="6" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="AG26" s="6" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="AH26" s="6" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="AI26" s="6" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="AJ26" s="6" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="AK26" s="6" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AL26" s="6" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:38" ht="24" customHeight="1">
       <c r="B27" s="11" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="AA27" s="6" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="AE27" s="6" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="AF27" s="6" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="AG27" s="6" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="AH27" s="6" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="AI27" s="6" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="AJ27" s="6" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="AK27" s="6" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AL27" s="6" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:38" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="AC28" s="6" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="AD28" s="6" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="AE28" s="6" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="AF28" s="6" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="AG28" s="6" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="AH28" s="6" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="AI28" s="6" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="AJ28" s="6" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="AK28" s="6" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AL28" s="6" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:38" ht="24" customHeight="1">
       <c r="B29" s="11" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="AA29" s="6" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="AB29" s="6" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="AC29" s="6" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="AD29" s="6" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="AE29" s="6" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="AF29" s="6" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="AG29" s="6" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="AH29" s="6" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="AI29" s="6" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="AJ29" s="6" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="AK29" s="6" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AL29" s="6" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:38" ht="24" customHeight="1">
       <c r="B30" s="11" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="AA30" s="6" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="AB30" s="6" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="AC30" s="6" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="AD30" s="6" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="AE30" s="6" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="AF30" s="6" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="AG30" s="6" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="AH30" s="6" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="AI30" s="6" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="AJ30" s="6" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="AK30" s="6" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AL30" s="6" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:38" ht="24" customHeight="1">
       <c r="B31" s="11" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AA31" s="6" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="AD31" s="6" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="AE31" s="6" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="AF31" s="6" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="AG31" s="6" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="AH31" s="6" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="AI31" s="6" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="AJ31" s="6" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="AK31" s="6" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AL31" s="6" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:38" ht="24" customHeight="1">
       <c r="B32" s="11" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="AA32" s="6" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="AC32" s="6" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="AD32" s="6" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="AE32" s="6" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="AF32" s="6" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="AG32" s="6" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="AH32" s="6" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="AI32" s="6" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="AJ32" s="6" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="AK32" s="6" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AL32" s="6" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:38" ht="24" customHeight="1">
       <c r="B33" s="11" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="AA33" s="6" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="AB33" s="6" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="AC33" s="6" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="AD33" s="6" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="AE33" s="6" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="AF33" s="6" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="AG33" s="6" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="AH33" s="6" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="AI33" s="6" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="AJ33" s="6" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="AK33" s="6" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AL33" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:38" ht="24" customHeight="1">
-      <c r="B34" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:38" ht="24" customHeight="1">
+      <c r="A36" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:38" ht="24" customHeight="1">
+      <c r="B37" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:38" ht="24" customHeight="1">
+      <c r="A39" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:38" ht="24" customHeight="1">
+      <c r="A40" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="AA34" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB34" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC34" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD34" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE34" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF34" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG34" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH34" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI34" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AJ34" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK34" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL34" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:38" ht="24" customHeight="1">
-      <c r="B35" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA35" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB35" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC35" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD35" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE35" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF35" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG35" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH35" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI35" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AJ35" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK35" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL35" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:38" ht="24" customHeight="1">
-      <c r="B36" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA36" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB36" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC36" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD36" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE36" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF36" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG36" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH36" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI36" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AJ36" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK36" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL36" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:38" ht="24" customHeight="1">
-      <c r="B37" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA37" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB37" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC37" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD37" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE37" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF37" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG37" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH37" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI37" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AJ37" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK37" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL37" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:38" ht="24" customHeight="1">
-      <c r="A40" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>82</v>
+      <c r="B40" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:38" ht="24" customHeight="1">
-      <c r="B41" s="13" t="s">
-        <v>83</v>
+      <c r="B41" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA41" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB41" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC41" s="6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:38" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:38" ht="24" customHeight="1">
       <c r="A44" s="14" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:38" ht="24" customHeight="1">
-      <c r="B45" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA45" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB45" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC45" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:38" ht="24" customHeight="1">
-      <c r="A47" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>92</v>
-      </c>
+      <c r="B45" s="11"/>
     </row>
     <row r="48" spans="1:38" ht="24" customHeight="1">
-      <c r="A48" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>95</v>
+      <c r="A48" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
-      <c r="B49" s="11"/>
+      <c r="B49" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="24" customHeight="1">
+      <c r="A51" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
-      <c r="A52" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>97</v>
+      <c r="A52" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
-      <c r="B53" s="13" t="s">
-        <v>98</v>
+      <c r="B53" s="11" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
       <c r="A56" s="14" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="B57" s="11" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
       <c r="A60" s="14" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
-      <c r="B61" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="24" customHeight="1">
-      <c r="A63" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>109</v>
+      <c r="B61" s="11">
+        <v>108000</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
-      <c r="A64" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>112</v>
+      <c r="A64" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
-      <c r="B65" s="11">
-        <v>122880</v>
+      <c r="B65" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="24" customHeight="1">
+      <c r="A67" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
-      <c r="A68" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>114</v>
+      <c r="A68" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
-      <c r="B69" s="13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="24" customHeight="1">
-      <c r="A71" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>117</v>
+      <c r="B69" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B70" s="11" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
-      <c r="A72" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>119</v>
+      <c r="A72" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="24" customHeight="1">
-      <c r="B73" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="177.95" customHeight="1">
-      <c r="B74" s="11" t="s">
-        <v>120</v>
-      </c>
+      <c r="A73" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="24" customHeight="1">
+      <c r="B74" s="11"/>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="A77" s="14" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
-      <c r="B78" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="24" customHeight="1">
-      <c r="A80" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>127</v>
+      <c r="B78" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="24" customHeight="1">
+      <c r="B79" s="11" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
-      <c r="A81" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>129</v>
+      <c r="A81" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
-      <c r="B82" s="8" t="s">
-        <v>47</v>
+      <c r="A82" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="24" customHeight="1">
-      <c r="B83" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="24" customHeight="1">
-      <c r="A85" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>132</v>
+      <c r="B83" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="24" customHeight="1">
+      <c r="B84" s="11" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
-      <c r="A86" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>134</v>
+      <c r="A86" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
-      <c r="B87" s="8" t="s">
-        <v>47</v>
+      <c r="A87" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
-      <c r="B88" s="11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="24" customHeight="1">
-      <c r="A90" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="A91" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>139</v>
-      </c>
+      <c r="B88" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="24" customHeight="1">
+      <c r="B89" s="11"/>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
-      <c r="B92" s="8" t="s">
-        <v>47</v>
+      <c r="A92" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
-      <c r="B93" s="11" t="s">
-        <v>140</v>
+      <c r="B93" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="24" customHeight="1">
+      <c r="A95" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
-      <c r="A96" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B96" s="12" t="s">
-        <v>142</v>
+      <c r="A96" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
-      <c r="B97" s="13" t="s">
-        <v>143</v>
+      <c r="B97" s="11">
+        <v>27500</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
       <c r="A100" s="14" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="B101" s="11">
-        <v>27500</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
       <c r="A103" s="9" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
       <c r="A104" s="14" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="B105" s="11">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="9" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
       <c r="A108" s="14" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
-      <c r="B109" s="11">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="24" customHeight="1">
-      <c r="A111" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="24" customHeight="1">
-      <c r="A112" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>159</v>
+      <c r="B109" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="24" customHeight="1">
+      <c r="B110" s="11" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
-      <c r="B113" s="8" t="s">
-        <v>47</v>
+      <c r="A113" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
-      <c r="B114" s="11" t="s">
-        <v>160</v>
+      <c r="B114" s="13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="24" customHeight="1">
+      <c r="A116" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
-      <c r="A117" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B117" s="12" t="s">
-        <v>162</v>
+      <c r="A117" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
-      <c r="B118" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="24" customHeight="1">
-      <c r="A120" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>117</v>
+      <c r="B118" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B119" s="11" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
-      <c r="A121" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B121" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>166</v>
+      <c r="A121" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="24" customHeight="1">
-      <c r="B122" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="177.95" customHeight="1">
-      <c r="B123" s="11" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="24" customHeight="1">
-      <c r="A125" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B125" s="9" t="s">
-        <v>169</v>
+      <c r="A122" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="24" customHeight="1">
+      <c r="B123" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="24" customHeight="1">
+      <c r="B124" s="11" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
-      <c r="A126" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B126" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C126" s="10" t="s">
-        <v>171</v>
+      <c r="A126" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="24" customHeight="1">
-      <c r="B127" s="8" t="s">
-        <v>47</v>
+      <c r="A127" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="24" customHeight="1">
-      <c r="B128" s="11" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="24" customHeight="1">
-      <c r="A130" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="B130" s="9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="24" customHeight="1">
-      <c r="A131" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B131" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="C131" s="10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="24" customHeight="1">
-      <c r="B132" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="24" customHeight="1">
-      <c r="B133" s="11" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="24" customHeight="1">
-      <c r="A136" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="B136" s="12" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="24" customHeight="1">
-      <c r="B137" s="13" t="s">
+      <c r="B128" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="129" spans="1:30" ht="24" customHeight="1">
+      <c r="B129" s="11" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="24" customHeight="1">
-      <c r="A139" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="B139" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="24" customHeight="1">
-      <c r="A140" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B140" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="C140" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="24" customHeight="1">
-      <c r="B141" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="177.95" customHeight="1">
-      <c r="B142" s="11" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="24" customHeight="1">
-      <c r="A144" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="B144" s="9" t="s">
-        <v>185</v>
+    <row r="132" spans="1:30" ht="24" customHeight="1">
+      <c r="A132" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="133" spans="1:30" ht="24" customHeight="1">
+      <c r="B133" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="135" spans="1:30" ht="24" customHeight="1">
+      <c r="A135" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="136" spans="1:30" ht="24" customHeight="1">
+      <c r="A136" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="137" spans="1:30" ht="24" customHeight="1">
+      <c r="B137" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="138" spans="1:30" ht="177.95" customHeight="1">
+      <c r="B138" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="140" spans="1:30" ht="24" customHeight="1">
+      <c r="A140" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="141" spans="1:30" ht="24" customHeight="1">
+      <c r="A141" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="142" spans="1:30" ht="24" customHeight="1">
+      <c r="B142" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="143" spans="1:30" ht="24" customHeight="1">
+      <c r="B143" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA143" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB143" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC143" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD143" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="144" spans="1:30" ht="24" customHeight="1">
+      <c r="B144" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA144" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB144" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC144" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD144" s="6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="145" spans="1:30" ht="24" customHeight="1">
-      <c r="A145" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B145" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="C145" s="10" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="146" spans="1:30" ht="24" customHeight="1">
-      <c r="B146" s="10" t="s">
-        <v>24</v>
+      <c r="B145" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA145" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB145" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC145" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD145" s="6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="147" spans="1:30" ht="24" customHeight="1">
-      <c r="B147" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA147" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="AB147" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="AC147" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD147" s="6" t="s">
-        <v>74</v>
+      <c r="A147" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="148" spans="1:30" ht="24" customHeight="1">
-      <c r="B148" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="AA148" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="AB148" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="AC148" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD148" s="6" t="s">
-        <v>74</v>
+      <c r="A148" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="149" spans="1:30" ht="24" customHeight="1">
-      <c r="B149" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA149" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="AB149" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="AC149" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD149" s="6" t="s">
-        <v>74</v>
+      <c r="B149" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="150" spans="1:30" ht="24" customHeight="1">
+      <c r="B150" s="11" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="151" spans="1:30" ht="24" customHeight="1">
-      <c r="A151" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="B151" s="9" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="152" spans="1:30" ht="24" customHeight="1">
-      <c r="A152" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B152" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="C152" s="10" t="s">
-        <v>195</v>
+      <c r="B151" s="11" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="153" spans="1:30" ht="24" customHeight="1">
-      <c r="B153" s="8" t="s">
-        <v>47</v>
+      <c r="A153" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="154" spans="1:30" ht="24" customHeight="1">
-      <c r="B154" s="11" t="s">
-        <v>194</v>
+      <c r="A154" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="155" spans="1:30" ht="24" customHeight="1">
       <c r="B155" s="11" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="157" spans="1:30" ht="24" customHeight="1">
-      <c r="A157" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="B157" s="9" t="s">
-        <v>198</v>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="156" spans="1:30" ht="24" customHeight="1">
+      <c r="B156" s="11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:30" ht="24" customHeight="1">
-      <c r="A158" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="B158" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="C158" s="10" t="s">
-        <v>201</v>
+      <c r="A158" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="159" spans="1:30" ht="24" customHeight="1">
-      <c r="B159" s="11" t="s">
-        <v>200</v>
+      <c r="A159" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="160" spans="1:30" ht="24" customHeight="1">
-      <c r="B160" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="24" customHeight="1">
-      <c r="A162" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="B162" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="24" customHeight="1">
-      <c r="A163" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B163" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="C163" s="10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="24" customHeight="1">
-      <c r="B164" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="24" customHeight="1">
-      <c r="B165" s="11"/>
+      <c r="B160" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" ht="24" customHeight="1">
+      <c r="B161" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="24">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
-      <formula1>AA25:AL25</formula1>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41" xr:uid="{00000000-0002-0000-0200-00000D000000}">
+      <formula1>AA41:AC41</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26">
-      <formula1>AA26:AL26</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
-      <formula1>AA27:AL27</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
-      <formula1>AA28:AL28</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29">
-      <formula1>AA29:AL29</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
-      <formula1>AA30:AL30</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
-      <formula1>AA31:AL31</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
-      <formula1>AA32:AL32</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
-      <formula1>AA33:AL33</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34">
-      <formula1>AA34:AL34</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
-      <formula1>AA35:AL35</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36">
-      <formula1>AA36:AL36</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37">
-      <formula1>AA37:AL37</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45">
-      <formula1>AA45:AC45</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B49">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45 B105 B101 B97" xr:uid="{00000000-0002-0000-0200-00000E000000}">
       <formula1>-1000000</formula1>
       <formula2>1000000</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B65">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B61" xr:uid="{00000000-0002-0000-0200-00000F000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B101">
-      <formula1>-1000000</formula1>
-      <formula2>1000000</formula2>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B143:B145" xr:uid="{00000000-0002-0000-0200-000013000000}">
+      <formula1>AA143:AD143</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B105">
-      <formula1>-1000000</formula1>
-      <formula2>1000000</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B109">
-      <formula1>-1000000</formula1>
-      <formula2>1000000</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B147">
-      <formula1>AA147:AD147</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B148">
-      <formula1>AA148:AD148</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B149">
-      <formula1>AA149:AD149</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B159">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B155:B156" xr:uid="{00000000-0002-0000-0200-000016000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B160">
-      <formula1>"TRUE,FALSE"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25:B33" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>AA25:AL25</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3995,10 +3960,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AD107"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4010,208 +3977,208 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
       <c r="A9" s="14" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="177.95" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>219</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="B27" s="11" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="AA27" s="6" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
@@ -4221,21 +4188,21 @@
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -4245,26 +4212,26 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="B39" s="8" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="177.95" customHeight="1">
@@ -4272,141 +4239,139 @@
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="A43" s="12" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
       <c r="B44" s="13" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="A47" s="14" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
       <c r="B48" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
       <c r="B49" s="11" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="AA49" s="6" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="AB49" s="6" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="AC49" s="6" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="AD49" s="6" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
     </row>
     <row r="52" spans="1:30" ht="24" customHeight="1">
       <c r="A52" s="14" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="B53" s="11">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
     </row>
     <row r="56" spans="1:30" ht="24" customHeight="1">
       <c r="A56" s="14" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="B57" s="8" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="177.95" customHeight="1">
-      <c r="B58" s="11" t="s">
-        <v>269</v>
-      </c>
+      <c r="B58" s="11"/>
     </row>
     <row r="61" spans="1:30" ht="24" customHeight="1">
       <c r="A61" s="12" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="B62" s="13" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="A65" s="14" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
@@ -4416,21 +4381,21 @@
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
       <c r="A69" s="14" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
@@ -4440,84 +4405,84 @@
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
       <c r="A72" s="9" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="24" customHeight="1">
       <c r="A73" s="14" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
       <c r="B74" s="8" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="B75" s="11" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
       <c r="A78" s="14" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="B79" s="8" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="177.95" customHeight="1">
       <c r="B80" s="11" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="24" customHeight="1">
       <c r="A83" s="14" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
       <c r="B84" s="8" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="177.95" customHeight="1">
@@ -4525,34 +4490,34 @@
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
       <c r="A88" s="12" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
       <c r="B89" s="13" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
       <c r="A92" s="14" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
@@ -4562,118 +4527,94 @@
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
       <c r="A96" s="14" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="B97" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
       <c r="A100" s="14" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="B101" s="8" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="177.95" customHeight="1">
       <c r="B102" s="11" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
       <c r="A104" s="9" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="A105" s="14" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
       <c r="B106" s="8" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="177.95" customHeight="1">
       <c r="B107" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="11">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B49 B27 B23" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>AA19:AD19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
-      <formula1>AA23:AD23</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
-      <formula1>AA27:AD27</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31 B97 B70 B53 B35" xr:uid="{00000000-0002-0000-0300-000003000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B49">
-      <formula1>AA49:AD49</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B66">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B66 B93" xr:uid="{00000000-0002-0000-0300-000007000000}">
       <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B70">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
-      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4681,10 +4622,1527 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AG33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B68" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="24" customHeight="1">
+      <c r="A1" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="24" customHeight="1">
+      <c r="B2" s="13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="24" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="24" customHeight="1">
+      <c r="A5" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="24" customHeight="1">
+      <c r="B6" s="11" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="24" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="24" customHeight="1">
+      <c r="A9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="24" customHeight="1">
+      <c r="B10" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="177.95" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="24" customHeight="1">
+      <c r="A13" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="24" customHeight="1">
+      <c r="A14" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="24" customHeight="1">
+      <c r="B15" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="AA15" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="AB15" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="AC15" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="AD15" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="24" customHeight="1">
+      <c r="A17" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="24" customHeight="1">
+      <c r="A18" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="24" customHeight="1">
+      <c r="B19" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="AA19" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="AB19" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="AC19" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="AD19" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" ht="24" customHeight="1">
+      <c r="A21" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="24" customHeight="1">
+      <c r="A22" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="24" customHeight="1">
+      <c r="B23" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="AA23" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="AB23" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="AC23" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" ht="24" customHeight="1">
+      <c r="A25" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" ht="24" customHeight="1">
+      <c r="A26" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" ht="24" customHeight="1">
+      <c r="B27" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" ht="24" customHeight="1">
+      <c r="B28" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="AA28" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="AB28" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="AC28" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" ht="24" customHeight="1">
+      <c r="B29" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="AA29" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="AB29" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="AC29" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" ht="24" customHeight="1">
+      <c r="A31" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" ht="24" customHeight="1">
+      <c r="A32" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="33" spans="2:33" ht="24" customHeight="1">
+      <c r="B33" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="AA33" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="AB33" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="AC33" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="AD33" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="AE33" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="AF33" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="AG33" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B19" xr:uid="{00000000-0002-0000-0400-000000000000}">
+      <formula1>AA15:AD15</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23 B28:B29" xr:uid="{00000000-0002-0000-0400-000002000000}">
+      <formula1>AA23:AC23</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33" xr:uid="{00000000-0002-0000-0400-000005000000}">
+      <formula1>AA33:AG33</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AE188"/>
+  <sheetViews>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="24" customHeight="1">
+      <c r="A1" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1">
+      <c r="B2" s="13" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="24" customHeight="1">
+      <c r="A5" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1">
+      <c r="B6" s="11" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="24" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="24" customHeight="1">
+      <c r="A9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1">
+      <c r="B10" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1">
+      <c r="A14" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1">
+      <c r="B15" s="13" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" ht="24" customHeight="1">
+      <c r="A17" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" ht="24" customHeight="1">
+      <c r="A18" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" ht="24" customHeight="1">
+      <c r="B19" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA19" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB19" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="AC19" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="AD19" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="AE19" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" ht="24" customHeight="1">
+      <c r="A21" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" ht="24" customHeight="1">
+      <c r="A22" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" ht="24" customHeight="1">
+      <c r="B23" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="AA23" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="AB23" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="AC23" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" ht="24" customHeight="1">
+      <c r="A25" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" ht="24" customHeight="1">
+      <c r="A26" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" ht="24" customHeight="1">
+      <c r="B27" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="AA27" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="AB27" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="AC27" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="AD27" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" ht="24" customHeight="1">
+      <c r="A29" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" ht="24" customHeight="1">
+      <c r="A30" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" ht="24" customHeight="1">
+      <c r="B31" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="AA31" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="AB31" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="AC31" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="AD31" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="24" customHeight="1">
+      <c r="A33" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="24" customHeight="1">
+      <c r="A34" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="24" customHeight="1">
+      <c r="B35" s="11"/>
+      <c r="D35" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="24" customHeight="1">
+      <c r="A37" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="24" customHeight="1">
+      <c r="A38" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="24" customHeight="1">
+      <c r="B39" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="177.95" customHeight="1">
+      <c r="B40" s="11" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="24" customHeight="1">
+      <c r="A42" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="24" customHeight="1">
+      <c r="A43" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="24" customHeight="1">
+      <c r="B44" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="177.95" customHeight="1">
+      <c r="B45" s="11" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="24" customHeight="1">
+      <c r="A48" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" ht="24" customHeight="1">
+      <c r="B49" s="13" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" ht="24" customHeight="1">
+      <c r="A51" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" ht="24" customHeight="1">
+      <c r="A52" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" ht="24" customHeight="1">
+      <c r="B53" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" ht="177.95" customHeight="1">
+      <c r="B54" s="11" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" ht="24" customHeight="1">
+      <c r="A56" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" ht="24" customHeight="1">
+      <c r="A57" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" ht="24" customHeight="1">
+      <c r="B58" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" ht="177.95" customHeight="1">
+      <c r="B59" s="11" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" ht="24" customHeight="1">
+      <c r="A61" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" ht="24" customHeight="1">
+      <c r="A62" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" ht="24" customHeight="1">
+      <c r="B63" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="AA63" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AB63" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="AC63" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="24" customHeight="1">
+      <c r="A65" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="24" customHeight="1">
+      <c r="A66" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="24" customHeight="1">
+      <c r="B67" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B68" s="11" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="24" customHeight="1">
+      <c r="A70" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="24" customHeight="1">
+      <c r="A71" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="24" customHeight="1">
+      <c r="B72" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B73" s="11" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="24" customHeight="1">
+      <c r="A76" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="24" customHeight="1">
+      <c r="B77" s="13" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="24" customHeight="1">
+      <c r="A79" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="24" customHeight="1">
+      <c r="A80" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30" ht="24" customHeight="1">
+      <c r="B81" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30" ht="24" customHeight="1">
+      <c r="A83" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="84" spans="1:30" ht="24" customHeight="1">
+      <c r="A84" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30" ht="24" customHeight="1">
+      <c r="B85" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30" ht="24" customHeight="1">
+      <c r="A88" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30" ht="24" customHeight="1">
+      <c r="B89" s="13" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="91" spans="1:30" ht="24" customHeight="1">
+      <c r="A91" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="92" spans="1:30" ht="24" customHeight="1">
+      <c r="A92" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="93" spans="1:30" ht="24" customHeight="1">
+      <c r="B93" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="AA93" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="AB93" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="AC93" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="AD93" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="95" spans="1:30" ht="24" customHeight="1">
+      <c r="A95" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="96" spans="1:30" ht="24" customHeight="1">
+      <c r="A96" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="97" spans="1:30" ht="24" customHeight="1">
+      <c r="B97" s="11"/>
+    </row>
+    <row r="99" spans="1:30" ht="24" customHeight="1">
+      <c r="A99" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="100" spans="1:30" ht="24" customHeight="1">
+      <c r="A100" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="101" spans="1:30" ht="24" customHeight="1">
+      <c r="B101" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="102" spans="1:30" ht="177.95" customHeight="1">
+      <c r="B102" s="11" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="105" spans="1:30" ht="24" customHeight="1">
+      <c r="A105" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="106" spans="1:30" ht="24" customHeight="1">
+      <c r="B106" s="13" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="108" spans="1:30" ht="24" customHeight="1">
+      <c r="A108" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="109" spans="1:30" ht="24" customHeight="1">
+      <c r="A109" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="110" spans="1:30" ht="24" customHeight="1">
+      <c r="B110" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="AA110" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="AB110" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="AC110" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="AD110" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="112" spans="1:30" ht="24" customHeight="1">
+      <c r="A112" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="113" spans="1:29" ht="24" customHeight="1">
+      <c r="A113" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="114" spans="1:29" ht="24" customHeight="1">
+      <c r="B114" s="11"/>
+    </row>
+    <row r="116" spans="1:29" ht="24" customHeight="1">
+      <c r="A116" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="117" spans="1:29" ht="24" customHeight="1">
+      <c r="A117" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="118" spans="1:29" ht="24" customHeight="1">
+      <c r="B118" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="119" spans="1:29" ht="177.95" customHeight="1">
+      <c r="B119" s="11" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="122" spans="1:29" ht="24" customHeight="1">
+      <c r="A122" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="123" spans="1:29" ht="24" customHeight="1">
+      <c r="B123" s="13" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="125" spans="1:29" ht="24" customHeight="1">
+      <c r="A125" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="126" spans="1:29" ht="24" customHeight="1">
+      <c r="A126" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="127" spans="1:29" ht="24" customHeight="1">
+      <c r="B127" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="AA127" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="AB127" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="AC127" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="130" spans="1:29" ht="24" customHeight="1">
+      <c r="A130" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="131" spans="1:29" ht="24" customHeight="1">
+      <c r="B131" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="133" spans="1:29" ht="24" customHeight="1">
+      <c r="A133" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="134" spans="1:29" ht="24" customHeight="1">
+      <c r="A134" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29" ht="24" customHeight="1">
+      <c r="B135" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="AA135" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="AB135" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="AC135" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29" ht="24" customHeight="1">
+      <c r="A137" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="138" spans="1:29" ht="24" customHeight="1">
+      <c r="A138" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="139" spans="1:29" ht="24" customHeight="1">
+      <c r="B139" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="140" spans="1:29" ht="177.95" customHeight="1">
+      <c r="B140" s="11" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="143" spans="1:29" ht="24" customHeight="1">
+      <c r="A143" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="B143" s="12" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="144" spans="1:29" ht="24" customHeight="1">
+      <c r="B144" s="13" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="146" spans="1:31" ht="24" customHeight="1">
+      <c r="A146" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="147" spans="1:31" ht="24" customHeight="1">
+      <c r="A147" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="148" spans="1:31" ht="24" customHeight="1">
+      <c r="B148" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:31" ht="24" customHeight="1">
+      <c r="A150" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="151" spans="1:31" ht="24" customHeight="1">
+      <c r="A151" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="152" spans="1:31" ht="24" customHeight="1">
+      <c r="B152" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="AA152" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="AB152" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="AC152" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="154" spans="1:31" ht="24" customHeight="1">
+      <c r="A154" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="155" spans="1:31" ht="24" customHeight="1">
+      <c r="A155" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="156" spans="1:31" ht="24" customHeight="1">
+      <c r="B156" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="157" spans="1:31" ht="24" customHeight="1">
+      <c r="B157" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="AA157" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="AB157" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="AC157" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="AD157" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="158" spans="1:31" ht="24" customHeight="1">
+      <c r="B158" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="D158" s="17"/>
+      <c r="E158" s="17"/>
+      <c r="F158" s="17"/>
+      <c r="G158" s="17"/>
+      <c r="H158" s="17"/>
+      <c r="I158" s="17"/>
+      <c r="J158" s="17"/>
+      <c r="K158" s="17"/>
+      <c r="L158" s="17"/>
+      <c r="M158" s="17"/>
+      <c r="N158" s="17"/>
+      <c r="O158" s="17"/>
+      <c r="P158" s="17"/>
+      <c r="Q158" s="17"/>
+      <c r="R158" s="17"/>
+      <c r="S158" s="17"/>
+      <c r="T158" s="17"/>
+      <c r="U158" s="17"/>
+      <c r="V158" s="17"/>
+      <c r="W158" s="17"/>
+      <c r="X158" s="17"/>
+      <c r="Y158" s="17"/>
+      <c r="Z158" s="17"/>
+      <c r="AA158" s="17" t="s">
+        <v>531</v>
+      </c>
+      <c r="AB158" s="17" t="s">
+        <v>532</v>
+      </c>
+      <c r="AC158" s="17" t="s">
+        <v>533</v>
+      </c>
+      <c r="AD158" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE158" s="17"/>
+    </row>
+    <row r="161" spans="1:3" ht="24" customHeight="1">
+      <c r="A161" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="B161" s="12" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="24" customHeight="1">
+      <c r="B162" s="13" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="24" customHeight="1">
+      <c r="A164" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="24" customHeight="1">
+      <c r="A165" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="24" customHeight="1">
+      <c r="B166" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="24" customHeight="1">
+      <c r="A168" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="B168" s="9" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="24" customHeight="1">
+      <c r="A169" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B169" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="C169" s="10" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="24" customHeight="1">
+      <c r="B170" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B171" s="11"/>
+    </row>
+    <row r="173" spans="1:3" ht="24" customHeight="1">
+      <c r="A173" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="B173" s="9" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="24" customHeight="1">
+      <c r="A174" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="B174" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="C174" s="10" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="24" customHeight="1">
+      <c r="B175" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:29" ht="24" customHeight="1">
+      <c r="A177" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="B177" s="9" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="178" spans="1:29" ht="24" customHeight="1">
+      <c r="A178" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B178" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="C178" s="10" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="179" spans="1:29" ht="24" customHeight="1">
+      <c r="B179" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="180" spans="1:29" ht="177.95" customHeight="1">
+      <c r="B180" s="11" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="182" spans="1:29" ht="24" customHeight="1">
+      <c r="A182" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="B182" s="9" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="183" spans="1:29" ht="24" customHeight="1">
+      <c r="A183" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B183" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="C183" s="10" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="184" spans="1:29" ht="24" customHeight="1">
+      <c r="B184" s="11" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="186" spans="1:29" ht="24" customHeight="1">
+      <c r="A186" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="187" spans="1:29" ht="24" customHeight="1">
+      <c r="A187" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B187" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="C187" s="10" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="188" spans="1:29" ht="24" customHeight="1">
+      <c r="B188" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="AA188" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="AB188" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="AC188" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19" xr:uid="{00000000-0002-0000-0500-000000000000}">
+      <formula1>AA19:AE19</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23 B188 B152 B135 B127 B63" xr:uid="{00000000-0002-0000-0500-000001000000}">
+      <formula1>AA23:AC23</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27 B31 B110 B93 B157:B158" xr:uid="{00000000-0002-0000-0500-000002000000}">
+      <formula1>AA27:AD27</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35 B114 B97" xr:uid="{00000000-0002-0000-0500-000004000000}">
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B81 B175 B166 B148 B85" xr:uid="{00000000-0002-0000-0500-000006000000}">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:AD20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4696,1669 +6154,151 @@
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>314</v>
+        <v>563</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>315</v>
+        <v>564</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>316</v>
+        <v>565</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>317</v>
+        <v>566</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="24" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>318</v>
+        <v>567</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>319</v>
+        <v>568</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
       <c r="B6" s="11" t="s">
-        <v>320</v>
+        <v>569</v>
       </c>
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>321</v>
+        <v>570</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="24" customHeight="1">
       <c r="A9" s="14" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>322</v>
+        <v>571</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>323</v>
+        <v>572</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="177.95" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>324</v>
+        <v>573</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>325</v>
+        <v>574</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>326</v>
+        <v>575</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>327</v>
+        <v>576</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>328</v>
+        <v>577</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
       <c r="B15" s="11" t="s">
-        <v>329</v>
+        <v>578</v>
       </c>
       <c r="AA15" s="6" t="s">
-        <v>329</v>
+        <v>579</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>330</v>
+        <v>580</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>331</v>
+        <v>578</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>332</v>
+        <v>581</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>333</v>
+        <v>582</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>334</v>
+        <v>583</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" ht="24" customHeight="1">
-      <c r="B19" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="AA19" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="AB19" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="AC19" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="AD19" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" ht="24" customHeight="1">
-      <c r="A21" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" ht="24" customHeight="1">
-      <c r="A22" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" ht="24" customHeight="1">
-      <c r="B23" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="AA23" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="AB23" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="AC23" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" ht="24" customHeight="1">
-      <c r="A25" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" ht="24" customHeight="1">
-      <c r="A26" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" ht="24" customHeight="1">
-      <c r="B27" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" ht="24" customHeight="1">
-      <c r="B28" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="AA28" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="AB28" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="AC28" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" ht="24" customHeight="1">
-      <c r="B29" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="AA29" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="AB29" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="AC29" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" ht="24" customHeight="1">
-      <c r="A31" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" ht="24" customHeight="1">
-      <c r="A32" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="33" spans="2:33" ht="24" customHeight="1">
-      <c r="B33" s="11"/>
-      <c r="AA33" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="AB33" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="AC33" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="AD33" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="AE33" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="AF33" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="AG33" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
-      <formula1>AA15:AD15</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
-      <formula1>AA19:AD19</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
-      <formula1>AA23:AC23</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
-      <formula1>AA28:AC28</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29">
-      <formula1>AA29:AC29</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
-      <formula1>AA33:AG33</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE187"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="13" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="177.95" customHeight="1">
-      <c r="B11" s="11" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="13" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" ht="24" customHeight="1">
-      <c r="A17" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" ht="24" customHeight="1">
-      <c r="A18" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" ht="24" customHeight="1">
-      <c r="B19" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="AA19" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="AB19" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="AC19" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="AD19" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="AE19" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" ht="24" customHeight="1">
-      <c r="A21" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" ht="24" customHeight="1">
-      <c r="A22" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" ht="24" customHeight="1">
-      <c r="B23" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="AA23" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="AB23" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="AC23" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" ht="24" customHeight="1">
-      <c r="A25" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" ht="24" customHeight="1">
-      <c r="A26" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" ht="24" customHeight="1">
-      <c r="B27" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="AA27" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="AB27" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="AC27" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="AD27" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" ht="24" customHeight="1">
-      <c r="A29" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" ht="24" customHeight="1">
-      <c r="A30" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" ht="24" customHeight="1">
-      <c r="B31" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="AA31" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="AB31" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="AC31" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="AD31" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="A33" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="A34" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="B35" s="11"/>
-    </row>
-    <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="A38" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="B39" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="177.95" customHeight="1">
-      <c r="B40" s="11" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="A42" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="A43" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="24" customHeight="1">
-      <c r="B44" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="177.95" customHeight="1">
-      <c r="B45" s="11" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="24" customHeight="1">
-      <c r="A48" s="12" t="s">
-        <v>415</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29" ht="24" customHeight="1">
-      <c r="B49" s="13" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29" ht="24" customHeight="1">
-      <c r="A51" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29" ht="24" customHeight="1">
-      <c r="A52" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29" ht="24" customHeight="1">
-      <c r="B53" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29" ht="177.95" customHeight="1">
-      <c r="B54" s="11" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29" ht="24" customHeight="1">
-      <c r="A56" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="57" spans="1:29" ht="24" customHeight="1">
-      <c r="A57" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="58" spans="1:29" ht="24" customHeight="1">
-      <c r="B58" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="59" spans="1:29" ht="177.95" customHeight="1">
-      <c r="B59" s="11" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29" ht="24" customHeight="1">
-      <c r="A61" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29" ht="24" customHeight="1">
-      <c r="A62" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="63" spans="1:29" ht="24" customHeight="1">
-      <c r="B63" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="AA63" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="AB63" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="AC63" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="24" customHeight="1">
-      <c r="A65" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="24" customHeight="1">
-      <c r="A66" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="24" customHeight="1">
-      <c r="B67" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="177.95" customHeight="1">
-      <c r="B68" s="11" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="24" customHeight="1">
-      <c r="A70" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="24" customHeight="1">
-      <c r="A71" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="24" customHeight="1">
-      <c r="B72" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="177.95" customHeight="1">
-      <c r="B73" s="11" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="24" customHeight="1">
-      <c r="A76" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="24" customHeight="1">
-      <c r="B77" s="13" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="24" customHeight="1">
-      <c r="A79" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="24" customHeight="1">
-      <c r="A80" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="81" spans="1:30" ht="24" customHeight="1">
-      <c r="B81" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:30" ht="24" customHeight="1">
-      <c r="A83" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="84" spans="1:30" ht="24" customHeight="1">
-      <c r="A84" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="85" spans="1:30" ht="24" customHeight="1">
-      <c r="B85" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:30" ht="24" customHeight="1">
-      <c r="A88" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="B88" s="12" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="89" spans="1:30" ht="24" customHeight="1">
-      <c r="B89" s="13" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="91" spans="1:30" ht="24" customHeight="1">
-      <c r="A91" s="9" t="s">
-        <v>458</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="92" spans="1:30" ht="24" customHeight="1">
-      <c r="A92" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="93" spans="1:30" ht="24" customHeight="1">
-      <c r="B93" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="AA93" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="AB93" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="AC93" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="AD93" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="95" spans="1:30" ht="24" customHeight="1">
-      <c r="A95" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="96" spans="1:30" ht="24" customHeight="1">
-      <c r="A96" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B96" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="97" spans="1:30" ht="24" customHeight="1">
-      <c r="B97" s="11"/>
-    </row>
-    <row r="99" spans="1:30" ht="24" customHeight="1">
-      <c r="A99" s="9" t="s">
-        <v>469</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="100" spans="1:30" ht="24" customHeight="1">
-      <c r="A100" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B100" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="101" spans="1:30" ht="24" customHeight="1">
-      <c r="B101" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="102" spans="1:30" ht="177.95" customHeight="1">
-      <c r="B102" s="11" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="105" spans="1:30" ht="24" customHeight="1">
-      <c r="A105" s="12" t="s">
-        <v>473</v>
-      </c>
-      <c r="B105" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="106" spans="1:30" ht="24" customHeight="1">
-      <c r="B106" s="13" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="108" spans="1:30" ht="24" customHeight="1">
-      <c r="A108" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="109" spans="1:30" ht="24" customHeight="1">
-      <c r="A109" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B109" s="10" t="s">
-        <v>477</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="110" spans="1:30" ht="24" customHeight="1">
-      <c r="B110" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="AA110" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="AB110" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="AC110" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="AD110" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="112" spans="1:30" ht="24" customHeight="1">
-      <c r="A112" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="113" spans="1:29" ht="24" customHeight="1">
-      <c r="A113" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B113" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="114" spans="1:29" ht="24" customHeight="1">
-      <c r="B114" s="11"/>
-    </row>
-    <row r="116" spans="1:29" ht="24" customHeight="1">
-      <c r="A116" s="9" t="s">
-        <v>481</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="117" spans="1:29" ht="24" customHeight="1">
-      <c r="A117" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B117" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="118" spans="1:29" ht="24" customHeight="1">
-      <c r="B118" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="119" spans="1:29" ht="177.95" customHeight="1">
-      <c r="B119" s="11"/>
-    </row>
-    <row r="122" spans="1:29" ht="24" customHeight="1">
-      <c r="A122" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="B122" s="12" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="123" spans="1:29" ht="24" customHeight="1">
-      <c r="B123" s="13" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="125" spans="1:29" ht="24" customHeight="1">
-      <c r="A125" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="B125" s="9" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="126" spans="1:29" ht="24" customHeight="1">
-      <c r="A126" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B126" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="C126" s="10" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="127" spans="1:29" ht="24" customHeight="1">
-      <c r="B127" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="AA127" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="AB127" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="AC127" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="130" spans="1:29" ht="24" customHeight="1">
-      <c r="A130" s="12" t="s">
-        <v>492</v>
-      </c>
-      <c r="B130" s="12" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="131" spans="1:29" ht="24" customHeight="1">
-      <c r="B131" s="13" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="133" spans="1:29" ht="24" customHeight="1">
-      <c r="A133" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="B133" s="9" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="134" spans="1:29" ht="24" customHeight="1">
-      <c r="A134" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B134" s="10" t="s">
-        <v>496</v>
-      </c>
-      <c r="C134" s="10" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="135" spans="1:29" ht="24" customHeight="1">
-      <c r="B135" s="11" t="s">
-        <v>498</v>
-      </c>
-      <c r="AA135" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="AB135" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="AC135" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="137" spans="1:29" ht="24" customHeight="1">
-      <c r="A137" s="9" t="s">
-        <v>499</v>
-      </c>
-      <c r="B137" s="9" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="138" spans="1:29" ht="24" customHeight="1">
-      <c r="A138" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B138" s="10" t="s">
-        <v>500</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="139" spans="1:29" ht="24" customHeight="1">
-      <c r="B139" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="140" spans="1:29" ht="177.95" customHeight="1">
-      <c r="B140" s="11" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="143" spans="1:29" ht="24" customHeight="1">
-      <c r="A143" s="12" t="s">
-        <v>503</v>
-      </c>
-      <c r="B143" s="12" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="144" spans="1:29" ht="24" customHeight="1">
-      <c r="B144" s="13" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="146" spans="1:30" ht="24" customHeight="1">
-      <c r="A146" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="147" spans="1:30" ht="24" customHeight="1">
-      <c r="A147" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="B147" s="10" t="s">
-        <v>508</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="148" spans="1:30" ht="24" customHeight="1">
-      <c r="B148" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:30" ht="24" customHeight="1">
-      <c r="A150" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="B150" s="9" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="151" spans="1:30" ht="24" customHeight="1">
-      <c r="A151" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B151" s="10" t="s">
-        <v>512</v>
-      </c>
-      <c r="C151" s="10" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="152" spans="1:30" ht="24" customHeight="1">
-      <c r="B152" s="11" t="s">
-        <v>514</v>
-      </c>
-      <c r="AA152" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="AB152" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="AC152" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="154" spans="1:30" ht="24" customHeight="1">
-      <c r="A154" s="9" t="s">
-        <v>516</v>
-      </c>
-      <c r="B154" s="9" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="155" spans="1:30" ht="24" customHeight="1">
-      <c r="A155" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B155" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="C155" s="10" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="156" spans="1:30" ht="24" customHeight="1">
-      <c r="B156" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="157" spans="1:30" ht="24" customHeight="1">
-      <c r="B157" s="11" t="s">
-        <v>520</v>
-      </c>
-      <c r="AA157" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="AB157" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="AC157" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="AD157" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="160" spans="1:30" ht="24" customHeight="1">
-      <c r="A160" s="12" t="s">
-        <v>523</v>
-      </c>
-      <c r="B160" s="12" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="24" customHeight="1">
-      <c r="B161" s="13" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="24" customHeight="1">
-      <c r="A163" s="9" t="s">
-        <v>526</v>
-      </c>
-      <c r="B163" s="9" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="24" customHeight="1">
-      <c r="A164" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="B164" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="C164" s="10" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="24" customHeight="1">
-      <c r="B165" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="24" customHeight="1">
-      <c r="A167" s="9" t="s">
-        <v>530</v>
-      </c>
-      <c r="B167" s="9" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="24" customHeight="1">
-      <c r="A168" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B168" s="10" t="s">
-        <v>532</v>
-      </c>
-      <c r="C168" s="10" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="24" customHeight="1">
-      <c r="B169" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="177.95" customHeight="1">
-      <c r="B170" s="11"/>
-    </row>
-    <row r="172" spans="1:3" ht="24" customHeight="1">
-      <c r="A172" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="B172" s="9" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="24" customHeight="1">
-      <c r="A173" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="B173" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="C173" s="10" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="24" customHeight="1">
-      <c r="B174" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="24" customHeight="1">
-      <c r="A176" s="9" t="s">
-        <v>538</v>
-      </c>
-      <c r="B176" s="9" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="177" spans="1:29" ht="24" customHeight="1">
-      <c r="A177" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B177" s="10" t="s">
-        <v>540</v>
-      </c>
-      <c r="C177" s="10" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="178" spans="1:29" ht="24" customHeight="1">
-      <c r="B178" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="179" spans="1:29" ht="177.95" customHeight="1">
-      <c r="B179" s="11" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="181" spans="1:29" ht="24" customHeight="1">
-      <c r="A181" s="9" t="s">
-        <v>543</v>
-      </c>
-      <c r="B181" s="9" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="182" spans="1:29" ht="24" customHeight="1">
-      <c r="A182" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B182" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="C182" s="10" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="183" spans="1:29" ht="24" customHeight="1">
-      <c r="B183" s="11" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="185" spans="1:29" ht="24" customHeight="1">
-      <c r="A185" s="9" t="s">
-        <v>547</v>
-      </c>
-      <c r="B185" s="9" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="186" spans="1:29" ht="24" customHeight="1">
-      <c r="A186" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B186" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="C186" s="10" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="187" spans="1:29" ht="24" customHeight="1">
-      <c r="B187" s="11"/>
-      <c r="AA187" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="AB187" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="AC187" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="20">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
-      <formula1>AA19:AE19</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
-      <formula1>AA23:AC23</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
-      <formula1>AA27:AD27</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
-      <formula1>AA31:AD31</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
-      <formula1>-1000000</formula1>
-      <formula2>1000000</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
-      <formula1>AA63:AC63</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B81">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B85">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
-      <formula1>AA93:AD93</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
-      <formula1>-1000000</formula1>
-      <formula2>1000000</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B110">
-      <formula1>AA110:AD110</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B114">
-      <formula1>-1000000</formula1>
-      <formula2>1000000</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B127">
-      <formula1>AA127:AC127</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B135">
-      <formula1>AA135:AC135</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B148">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B152">
-      <formula1>AA152:AC152</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B157">
-      <formula1>AA157:AD157</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B165">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B174">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B187">
-      <formula1>AA187:AC187</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:30" ht="24" customHeight="1">
-      <c r="A1" s="12" t="s">
-        <v>552</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" ht="24" customHeight="1">
-      <c r="B2" s="13" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" ht="24" customHeight="1">
-      <c r="A4" s="9" t="s">
-        <v>555</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" ht="24" customHeight="1">
-      <c r="A5" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>556</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" ht="24" customHeight="1">
-      <c r="B6" s="11" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" ht="24" customHeight="1">
-      <c r="A8" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" ht="24" customHeight="1">
-      <c r="A9" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" ht="24" customHeight="1">
-      <c r="B10" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" ht="177.95" customHeight="1">
-      <c r="B11" s="11" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" ht="24" customHeight="1">
-      <c r="A13" s="9" t="s">
-        <v>563</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" ht="24" customHeight="1">
-      <c r="A14" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>565</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" ht="24" customHeight="1">
-      <c r="B15" s="11" t="s">
-        <v>567</v>
-      </c>
-      <c r="AA15" s="6" t="s">
-        <v>567</v>
-      </c>
-      <c r="AB15" s="6" t="s">
-        <v>568</v>
-      </c>
-      <c r="AC15" s="6" t="s">
-        <v>569</v>
-      </c>
-      <c r="AD15" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" ht="24" customHeight="1">
-      <c r="A17" s="9" t="s">
-        <v>570</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" ht="24" customHeight="1">
-      <c r="A18" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>572</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="24" customHeight="1">
-      <c r="B20" s="11"/>
+      <c r="B20" s="11" t="s">
+        <v>585</v>
+      </c>
       <c r="AA20" s="6" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B20" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>AA15:AD15</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
-      <formula1>AA20:AD20</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
